--- a/stockselection.xlsx
+++ b/stockselection.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\js3624\Documents\GitHub\RiskProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D25F2BF8-6381-43AD-81E1-F3B05BB914DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11A83993-791C-4AC1-B485-52A9C65FF7E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3555" yWindow="3690" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="825" yWindow="5970" windowWidth="23940" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="2" r:id="rId1"/>
@@ -29,12 +29,37 @@
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="2"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>Ticker</t>
   </si>
@@ -187,6 +212,9 @@
   </si>
   <si>
     <t>Weighting</t>
+  </si>
+  <si>
+    <t>Beta</t>
   </si>
 </sst>
 </file>
@@ -752,1626 +780,1610 @@
   <volType type="realTimeData">
     <main first="bofaddin.rtdserver">
       <tp>
-        <v>-3.5799998790025711E-2</v>
+        <v>1.04</v>
+        <stp/>
+        <stp>BDP|7440769568831153095|22</stp>
+        <stp>USDJPY Curncy</stp>
+        <stp>RT_PX_CHG_NET_1D</stp>
+        <tr r="D39" s="2"/>
+      </tp>
+      <tp>
+        <v>2.8200000524520874E-2</v>
+        <stp/>
+        <stp>BDP|3207873935116218584|22</stp>
+        <stp>USDHKD Curncy</stp>
+        <stp>RT_PX_CHG_PCT_1D</stp>
+        <tr r="E40" s="2"/>
+      </tp>
+      <tp>
+        <v>-1.7</v>
+        <stp/>
+        <stp>BDP|947780228852389168|22</stp>
+        <stp>AIR FP Equity</stp>
+        <stp>RT_PX_CHG_NET_1D</stp>
+        <tr r="D19" s="2"/>
+      </tp>
+      <tp>
+        <v>205.75</v>
+        <stp/>
+        <stp>BDP|4491543040142409756|22</stp>
+        <stp>JNJ US Equity</stp>
+        <stp>LAST_PRICE</stp>
+        <tr r="C13" s="2"/>
+      </tp>
+      <tp>
+        <v>213.5</v>
+        <stp/>
+        <stp>BDP|9153568951839777700|22</stp>
+        <stp>AIR FP Equity</stp>
+        <stp>LAST_PRICE</stp>
+        <tr r="C19" s="2"/>
+      </tp>
+      <tp>
+        <v>98.69</v>
+        <stp/>
+        <stp>BDP|7681845166002514266|22</stp>
+        <stp>MDT US Equity</stp>
+        <stp>LAST_PRICE</stp>
+        <tr r="C24" s="2"/>
+      </tp>
+      <tp>
+        <v>29.35</v>
+        <stp/>
+        <stp>BDP|1402105755382465996|22</stp>
+        <stp>EMIRATES UH Equity</stp>
+        <stp>LAST_PRICE</stp>
+        <tr r="C32" s="2"/>
+      </tp>
+      <tp>
+        <v>25.29</v>
+        <stp/>
+        <stp>BDP|9122413816081145693|22</stp>
+        <stp>PFE US Equity</stp>
+        <stp>LAST_PRICE</stp>
+        <tr r="C14" s="2"/>
+      </tp>
+      <tp>
+        <v>-0.10450000315904617</v>
         <stp/>
         <stp>BDP|7186345658639241287|22</stp>
         <stp>USDCNY Curncy</stp>
         <stp>RT_PX_CHG_PCT_1D</stp>
         <tr r="E38" s="2"/>
       </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
+      <tp>
+        <v>7.7942</v>
+        <stp/>
+        <stp>BDP|9637940372468322631|22</stp>
+        <stp>USDHKD Curncy</stp>
+        <stp>LAST_PRICE</stp>
+        <tr r="C40" s="2"/>
+      </tp>
+      <tp>
+        <v>-0.33959999680519104</v>
+        <stp/>
+        <stp>BDP|1268961494542685334|22</stp>
+        <stp>EMIRATES UH Equity</stp>
+        <stp>RT_PX_CHG_PCT_1D</stp>
+        <tr r="E32" s="2"/>
+      </tp>
+      <tp>
+        <v>1085.19</v>
+        <stp/>
+        <stp>BDP|2243328945849060847|22</stp>
+        <stp>LLY US Equity</stp>
+        <stp>LAST_PRICE</stp>
+        <tr r="C12" s="2"/>
+      </tp>
+      <tp>
+        <v>2.2000000000000001E-3</v>
+        <stp/>
+        <stp>BDP|9251622605349132248|22</stp>
+        <stp>USDHKD Curncy</stp>
+        <stp>RT_PX_CHG_NET_1D</stp>
+        <tr r="D40" s="2"/>
+      </tp>
+      <tp>
+        <v>1.1642999999999999</v>
+        <stp/>
+        <stp>BDP|2536876535509111638|22</stp>
+        <stp>EURUSD Curncy</stp>
+        <stp>LAST_PRICE</stp>
+        <tr r="C42" s="2"/>
+      </tp>
+      <tp>
+        <v>-0.1</v>
+        <stp/>
+        <stp>BDP|9063213310330296407|22</stp>
+        <stp>EMIRATES UH Equity</stp>
+        <stp>RT_PX_CHG_NET_1D</stp>
+        <tr r="D32" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...4252599860</v>
         <stp/>
         <stp>BDP|13726330099102123159</stp>
         <tr r="G39" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4198328649</v>
         <stp/>
         <stp>BDP|10161068746736982849</stp>
         <tr r="H30" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDP|14042046800306843807</stp>
-        <tr r="C15" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4199075661</v>
         <stp/>
         <stp>BDP|11683585932585655850</stp>
         <tr r="F39" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4254515753</v>
         <stp/>
         <stp>BDP|12017484019005458817</stp>
         <tr r="G27" s="2"/>
       </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDP|10282340152104718857</stp>
-        <tr r="C36" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
+      <tp>
+        <v>7.6999999582767487E-3</v>
+        <stp/>
+        <stp>BDP|17619753738038543088|22</stp>
+        <stp>SPX Index</stp>
+        <stp>RT_PX_CHG_PCT_1D</stp>
+        <tr r="E2" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...4256059816</v>
         <stp/>
         <stp>BDP|14786265689685055015</stp>
         <tr r="I30" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4283094111</v>
         <stp/>
         <stp>BDP|11948538617169042745</stp>
         <tr r="I34" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4259220308</v>
         <stp/>
         <stp>BDP|13327030984277671781</stp>
         <tr r="G14" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4215086846</v>
         <stp/>
         <stp>BDP|11052201193037336611</stp>
         <tr r="I21" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDP|14668546377169920491</stp>
-        <tr r="E39" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4257003960</v>
         <stp/>
         <stp>BDP|15250022874911848898</stp>
         <tr r="I26" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4266836990</v>
         <stp/>
         <stp>BDP|16974495450745287955</stp>
         <tr r="H20" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4279916770</v>
         <stp/>
         <stp>BDP|13586107072397559958</stp>
         <tr r="F20" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDP|17619753738038543088</stp>
-        <tr r="E2" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4212618832</v>
         <stp/>
         <stp>BDP|12372777549130766986</stp>
         <tr r="H21" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4261290322</v>
         <stp/>
         <stp>BDP|15230718795624191739</stp>
         <tr r="F4" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDP|13884228839679351341</stp>
-        <tr r="C21" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDP|11431942920512482031</stp>
-        <tr r="C28" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDP|12884552599081678750</stp>
-        <tr r="C17" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4294094399</v>
         <stp/>
         <stp>BDP|17003660499597037782</stp>
         <tr r="F33" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4207043692</v>
         <stp/>
         <stp>BDP|12562979105557805579</stp>
         <tr r="G42" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4198844574</v>
         <stp/>
         <stp>BDP|11457716615866838852</stp>
         <tr r="G26" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4244729626</v>
         <stp/>
         <stp>BDP|10440016544805838894</stp>
         <tr r="G5" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDP|14152960264311473340</stp>
-        <tr r="E25" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4265165620</v>
         <stp/>
         <stp>BDP|10616050593057307760</stp>
         <tr r="I39" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDP|15903019331601790942</stp>
-        <tr r="D33" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4269162174</v>
         <stp/>
         <stp>BDP|16041977316761843146</stp>
         <tr r="G15" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4272923371</v>
         <stp/>
         <stp>BDP|10756724933539844329</stp>
         <tr r="H40" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDP|11739359662249823397</stp>
-        <tr r="C37" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4210121412</v>
         <stp/>
         <stp>BDP|18349960067411860888</stp>
         <tr r="G4" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4267788162</v>
         <stp/>
         <stp>BDP|11947684672467703960</stp>
         <tr r="G19" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4288396297</v>
         <stp/>
         <stp>BDP|11365796292615724579</stp>
         <tr r="I24" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4231715466</v>
         <stp/>
         <stp>BDP|12054380239949939427</stp>
         <tr r="H29" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4237547667</v>
         <stp/>
         <stp>BDP|13923957642225746475</stp>
         <tr r="I36" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4257916501</v>
         <stp/>
         <stp>BDP|13135852254226195741</stp>
         <tr r="F41" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4218180499</v>
         <stp/>
         <stp>BDP|13102856650200870187</stp>
         <tr r="I40" s="2"/>
       </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDP|13226202059161788941</stp>
-        <tr r="E26" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
+      <tp>
+        <v>1.3424</v>
+        <stp/>
+        <stp>BDP|9653383310122358291|22</stp>
+        <stp>GBPUSD Curncy</stp>
+        <stp>LAST_PRICE</stp>
+        <tr r="C41" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...4282646044</v>
         <stp/>
         <stp>BDP|15878542321509781777</stp>
         <tr r="G17" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDP|13009081181692174557</stp>
-        <tr r="D11" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4243095418</v>
         <stp/>
         <stp>BDP|12159893646134678644</stp>
         <tr r="F6" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4202658113</v>
         <stp/>
         <stp>BDP|10258547940269662411</stp>
         <tr r="I6" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDP|11103936965802558014</stp>
-        <tr r="D37" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4263682143</v>
         <stp/>
         <stp>BDP|13768640896215033570</stp>
         <tr r="I28" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDP|13376146485953853588</stp>
-        <tr r="E16" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4223173521</v>
         <stp/>
         <stp>BDP|17035422948918622380</stp>
         <tr r="F9" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4247788730</v>
         <stp/>
         <stp>BDP|16910038349647120967</stp>
         <tr r="I11" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4291684878</v>
         <stp/>
         <stp>BDP|12683165297093856580</stp>
         <tr r="I15" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDP|12835113743389862241</stp>
-        <tr r="C22" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDP|11968934023932890597</stp>
-        <tr r="C7" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDP|14006008219251660958</stp>
-        <tr r="D27" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4273930066</v>
         <stp/>
         <stp>BDP|10849937685575082907</stp>
         <tr r="H3" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDP|17616121733958148081</stp>
-        <tr r="D35" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4270472755</v>
         <stp/>
         <stp>BDP|11387265906147598984</stp>
         <tr r="F8" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4233239969</v>
         <stp/>
         <stp>BDP|10003955093708600510</stp>
         <tr r="F10" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4218898688</v>
         <stp/>
         <stp>BDP|13761486691800974370</stp>
         <tr r="H36" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDP|14464630041533025863</stp>
-        <tr r="C18" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4290730710</v>
         <stp/>
         <stp>BDP|16040454835818090432</stp>
         <tr r="F15" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDP|14363970263129756099</stp>
-        <tr r="C39" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDP|11570168183733824919</stp>
-        <tr r="E28" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4280224265</v>
         <stp/>
         <stp>BDP|15700200532082464481</stp>
         <tr r="F31" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4232551226</v>
         <stp/>
         <stp>BDP|13161382645165502325</stp>
         <tr r="G10" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4226793077</v>
         <stp/>
         <stp>BDP|16208206068012748229</stp>
         <tr r="G20" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4279571796</v>
         <stp/>
         <stp>BDP|18366234675737059841</stp>
         <tr r="I20" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDP|13860077139406148467</stp>
-        <tr r="C9" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4293124893</v>
         <stp/>
         <stp>BDP|18261041613382059904</stp>
         <tr r="I31" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4241384021</v>
         <stp/>
         <stp>BDP|16582623533297960696</stp>
         <tr r="G13" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4246777340</v>
         <stp/>
         <stp>BDP|13858879495628456914</stp>
         <tr r="H31" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4273070597</v>
         <stp/>
         <stp>BDP|11695912767929760498</stp>
         <tr r="G35" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4226580278</v>
         <stp/>
         <stp>BDP|17038771305915005622</stp>
         <tr r="H25" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDP|11315381428307748440</stp>
-        <tr r="D38" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4281575134</v>
         <stp/>
         <stp>BDP|16827823126506554997</stp>
         <tr r="F22" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4253057543</v>
         <stp/>
         <stp>BDP|14593538328399898904</stp>
         <tr r="H11" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDP|10942320600164745753</stp>
-        <tr r="D17" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4228386263</v>
         <stp/>
         <stp>BDP|10999080899661154832</stp>
         <tr r="H41" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4292287973</v>
         <stp/>
         <stp>BDP|11514997987664059458</stp>
         <tr r="G33" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDP|17600299909934463117</stp>
-        <tr r="D21" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4230160139</v>
         <stp/>
         <stp>BDP|15451012353400379014</stp>
         <tr r="H28" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDP|11250167525481573333</stp>
-        <tr r="C29" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4256402055</v>
         <stp/>
         <stp>BDP|11997629114190969612</stp>
         <tr r="F42" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDP|15103475849371120574</stp>
-        <tr r="D41" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDP|12356534598236212935</stp>
-        <tr r="C16" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4235067644</v>
         <stp/>
         <stp>BDP|12204730210556207380</stp>
         <tr r="H27" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4259715505</v>
         <stp/>
         <stp>BDP|10460298747857017006</stp>
         <tr r="H6" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDP|16867424875097710325</stp>
-        <tr r="C33" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDP|16162101806491084768</stp>
-        <tr r="D29" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDP|15048508152690684466</stp>
-        <tr r="C31" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDP|11062202761214578004</stp>
-        <tr r="D28" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4288551821</v>
         <stp/>
         <stp>BDP|14796527360083621578</stp>
         <tr r="I33" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4253672621</v>
         <stp/>
         <stp>BDP|12683415508285155296</stp>
         <tr r="F32" s="2"/>
       </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
+      <tp>
+        <v>-0.11159999668598175</v>
+        <stp/>
+        <stp>BDP|3252326477349184959|22</stp>
+        <stp>GBPUSD Curncy</stp>
+        <stp>RT_PX_CHG_PCT_1D</stp>
+        <tr r="E41" s="2"/>
+      </tp>
+      <tp>
+        <v>-1.2115000486373901</v>
+        <stp/>
+        <stp>BDP|13376146485953853588|22</stp>
+        <stp>3750 HK Equity</stp>
+        <stp>RT_PX_CHG_PCT_1D</stp>
+        <tr r="E16" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...4270641360</v>
         <stp/>
         <stp>BDP|16616712736590297494</stp>
         <tr r="G7" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4241042740</v>
         <stp/>
         <stp>BDP|17576767409894203223</stp>
         <tr r="H5" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDP|15949428646123579029</stp>
-        <tr r="E42" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDP|14505828566708507481</stp>
-        <tr r="E35" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDP|15725657548819232897</stp>
-        <tr r="E18" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDP|13900049956600954022</stp>
-        <tr r="D13" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDP|12051770770243262701</stp>
-        <tr r="C6" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDP|13869752148025551370</stp>
-        <tr r="C8" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4291261538</v>
         <stp/>
         <stp>BDP|14582929568925061894</stp>
         <tr r="I25" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4294174883</v>
         <stp/>
         <stp>BDP|17320285635276154692</stp>
         <tr r="F21" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDP|17434287841994420203</stp>
-        <tr r="E15" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4274305148</v>
         <stp/>
         <stp>BDP|10471760537425834641</stp>
         <tr r="H19" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDP|16688428108077739203</stp>
-        <tr r="E23" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDP|16434624473755799585</stp>
-        <tr r="C23" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4252531987</v>
         <stp/>
         <stp>BDP|17383472322095340392</stp>
         <tr r="H23" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDP|16664691158481139397</stp>
-        <tr r="E36" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4248923375</v>
         <stp/>
         <stp>BDP|12731195518096602311</stp>
         <tr r="I18" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDP|11207419032966624738</stp>
-        <tr r="D3" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDP|17295736934121751557</stp>
-        <tr r="D22" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDP|13806753115830245115</stp>
-        <tr r="C4" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDP|16966964530970065805</stp>
-        <tr r="E29" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDP|16433475406981355789</stp>
-        <tr r="C38" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4279979394</v>
         <stp/>
         <stp>BDP|18421073664189187360</stp>
         <tr r="F26" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDP|17470882591961521382</stp>
-        <tr r="C30" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4265729292</v>
         <stp/>
         <stp>BDP|17725620279742469083</stp>
         <tr r="F13" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4255608977</v>
         <stp/>
         <stp>BDP|14855635018010880786</stp>
         <tr r="I8" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4285536443</v>
         <stp/>
         <stp>BDP|10883295710664675336</stp>
         <tr r="I27" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDP|17504207547164204016</stp>
-        <tr r="D42" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4277972671</v>
         <stp/>
         <stp>BDP|14672332335199571845</stp>
         <tr r="F3" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDP|12185746505589525950</stp>
-        <tr r="E34" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDP|14686532303935796165</stp>
-        <tr r="E17" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4289991580</v>
         <stp/>
         <stp>BDP|16115650444926539732</stp>
         <tr r="G30" s="2"/>
       </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
+      <tp>
+        <v>96.01</v>
+        <stp/>
+        <stp>BDP|299636303602419036|22</stp>
+        <stp>EMB US Equity</stp>
+        <stp>LAST_PRICE</stp>
+        <tr r="C25" s="2"/>
+      </tp>
+      <tp>
+        <v>69.400000000000006</v>
+        <stp/>
+        <stp>BDP|480389239997635209|22</stp>
+        <stp>CON GR Equity</stp>
+        <stp>LAST_PRICE</stp>
+        <tr r="C34" s="2"/>
+      </tp>
+      <tp>
+        <v>0.32229998707771301</v>
+        <stp/>
+        <stp>BDP|3613685676553800010|22</stp>
+        <stp>JGB1X SW Equity</stp>
+        <stp>RT_PX_CHG_PCT_1D</stp>
+        <tr r="E37" s="2"/>
+      </tp>
+      <tp>
+        <v>325.44</v>
+        <stp/>
+        <stp>BDP|14464630041533025863|22</stp>
+        <stp>GOOGL US Equity</stp>
+        <stp>LAST_PRICE</stp>
+        <tr r="C18" s="2"/>
+      </tp>
+      <tp>
+        <v>0.53</v>
+        <stp/>
+        <stp>BDP|2094566810415125063|22</stp>
+        <stp>SPX Index</stp>
+        <stp>RT_PX_CHG_NET_1D</stp>
+        <tr r="D2" s="2"/>
+      </tp>
+      <tp>
+        <v>0.59909999370574951</v>
+        <stp/>
+        <stp>BDP|1189818855878137403|22</stp>
+        <stp>UKX Index</stp>
+        <stp>RT_PX_CHG_PCT_1D</stp>
+        <tr r="E5" s="2"/>
+      </tp>
+      <tp>
+        <v>60.18</v>
+        <stp/>
+        <stp>BDP|2643784526489972605|22</stp>
+        <stp>UKX Index</stp>
+        <stp>RT_PX_CHG_NET_1D</stp>
+        <tr r="D5" s="2"/>
+      </tp>
+      <tp>
+        <v>-0.14579999446868896</v>
+        <stp/>
+        <stp>BDP|15949428646123579029|22</stp>
+        <stp>EURUSD Curncy</stp>
+        <stp>RT_PX_CHG_PCT_1D</stp>
+        <tr r="E42" s="2"/>
+      </tp>
+      <tp>
+        <v>72.236000000000004</v>
+        <stp/>
+        <stp>BDP|13884228839679351341|22</stp>
+        <stp>BRITISH AIRWAYS CDS EUR SR 5Y Corp</stp>
+        <stp>LAST_PRICE</stp>
+        <tr r="C21" s="2"/>
+      </tp>
+      <tp>
+        <v>-1.5E-3</v>
+        <stp/>
+        <stp>BDP|15103475849371120574|22</stp>
+        <stp>GBPUSD Curncy</stp>
+        <stp>RT_PX_CHG_NET_1D</stp>
+        <tr r="D41" s="2"/>
+      </tp>
+      <tp>
+        <v>-1.6999999999999999E-3</v>
+        <stp/>
+        <stp>BDP|17504207547164204016|22</stp>
+        <stp>EURUSD Curncy</stp>
+        <stp>RT_PX_CHG_NET_1D</stp>
+        <tr r="D42" s="2"/>
+      </tp>
+      <tp>
+        <v>3.46</v>
+        <stp/>
+        <stp>BDP|3646236613481802582|22</stp>
+        <stp>GOOGL US Equity</stp>
+        <stp>RT_PX_CHG_NET_1D</stp>
+        <tr r="D18" s="2"/>
+      </tp>
+      <tp>
+        <v>-0.32440000772476196</v>
+        <stp/>
+        <stp>BDP|2808494796474558000|22</stp>
+        <stp>BA US Equity</stp>
+        <stp>RT_PX_CHG_PCT_1D</stp>
+        <tr r="E20" s="2"/>
+      </tp>
+      <tp>
+        <v>7.2279999999999998</v>
+        <stp/>
+        <stp>BDP|11968934023932890597|22</stp>
+        <stp>MINE LN Equity</stp>
+        <stp>LAST_PRICE</stp>
+        <tr r="C7" s="2"/>
+      </tp>
+      <tp>
+        <v>4.6920000000000002</v>
+        <stp/>
+        <stp>BDP|13869752148025551370|22</stp>
+        <stp>CBUK GY Equity</stp>
+        <stp>LAST_PRICE</stp>
+        <tr r="C8" s="2"/>
+      </tp>
+      <tp>
+        <v>2.5283000469207764</v>
+        <stp/>
+        <stp>BDP|1019546149324925451|22</stp>
+        <stp>PG US Equity</stp>
+        <stp>RT_PX_CHG_PCT_1D</stp>
+        <tr r="E27" s="2"/>
+      </tp>
+      <tp>
+        <v>5.21</v>
+        <stp/>
+        <stp>BDP|11250167525481573333|22</stp>
+        <stp>NEXT US Equity</stp>
+        <stp>LAST_PRICE</stp>
+        <tr r="C29" s="2"/>
+      </tp>
+      <tp>
+        <v>0.66299998760223389</v>
+        <stp/>
+        <stp>BDP|14668546377169920491|22</stp>
+        <stp>USDJPY Curncy</stp>
+        <stp>RT_PX_CHG_PCT_1D</stp>
+        <tr r="E39" s="2"/>
+      </tp>
+      <tp>
+        <v>246.29</v>
+        <stp/>
+        <stp>BDP|11431942920512482031|22</stp>
+        <stp>AMZN US Equity</stp>
+        <stp>LAST_PRICE</stp>
+        <tr r="C28" s="2"/>
+      </tp>
+      <tp>
+        <v>235</v>
+        <stp/>
+        <stp>BDP|15048508152690684466|22</stp>
+        <stp>JEMA LN Equity</stp>
+        <stp>LAST_PRICE</stp>
+        <tr r="C31" s="2"/>
+      </tp>
+      <tp>
+        <v>4.4463999999999997</v>
+        <stp/>
+        <stp>BDP|13860077139406148467|22</stp>
+        <stp>FXAC NA Equity</stp>
+        <stp>LAST_PRICE</stp>
+        <tr r="C9" s="2"/>
+      </tp>
+      <tp>
+        <v>646.05999999999995</v>
+        <stp/>
+        <stp>BDP|12884552599081678750|22</stp>
+        <stp>META US Equity</stp>
+        <stp>LAST_PRICE</stp>
+        <tr r="C17" s="2"/>
+      </tp>
+      <tp>
+        <v>88.18</v>
+        <stp/>
+        <stp>BDP|10282340152104718857|22</stp>
+        <stp>SBUX US Equity</stp>
+        <stp>LAST_PRICE</stp>
+        <tr r="C36" s="2"/>
+      </tp>
+      <tp>
+        <v>2.7095000743865967</v>
+        <stp/>
+        <stp>BDP|1813871049719514881|22</stp>
+        <stp>KO US Equity</stp>
+        <stp>RT_PX_CHG_PCT_1D</stp>
+        <tr r="E33" s="2"/>
+      </tp>
+      <tp>
+        <v>-0.74</v>
+        <stp/>
+        <stp>BDP|1974149410370576232|22</stp>
+        <stp>BA US Equity</stp>
+        <stp>RT_PX_CHG_NET_1D</stp>
+        <tr r="D20" s="2"/>
+      </tp>
+      <tp>
+        <v>1.06</v>
+        <stp/>
+        <stp>BDP|6329020999266162295|22</stp>
+        <stp>2899 HK Equity</stp>
+        <stp>RT_PX_CHG_NET_1D</stp>
+        <tr r="D10" s="2"/>
+      </tp>
+      <tp>
+        <v>38.26</v>
+        <stp/>
+        <stp>BDP|9403255991688555578|22</stp>
+        <stp>2899 HK Equity</stp>
+        <stp>LAST_PRICE</stp>
+        <tr r="C10" s="2"/>
+      </tp>
+      <tp>
+        <v>-7.3000000000000001E-3</v>
+        <stp/>
+        <stp>BDP|11315381428307748440|22</stp>
+        <stp>USDCNY Curncy</stp>
+        <stp>RT_PX_CHG_NET_1D</stp>
+        <tr r="D38" s="2"/>
+      </tp>
+      <tp>
+        <v>2.8494999408721924</v>
+        <stp/>
+        <stp>BDP|3876872004918020556|22</stp>
+        <stp>2899 HK Equity</stp>
+        <stp>RT_PX_CHG_PCT_1D</stp>
+        <tr r="E10" s="2"/>
+      </tp>
+      <tp>
+        <v>1.1011999845504761</v>
+        <stp/>
+        <stp>BDP|6394099357891618155|22</stp>
+        <stp>SO US Equity</stp>
+        <stp>RT_PX_CHG_PCT_1D</stp>
+        <tr r="E30" s="2"/>
+      </tp>
+      <tp>
+        <v>0.95</v>
+        <stp/>
+        <stp>BDP|7669793763101124231|22</stp>
+        <stp>SO US Equity</stp>
+        <stp>RT_PX_CHG_NET_1D</stp>
+        <tr r="D30" s="2"/>
+      </tp>
+      <tp>
+        <v>87.225009999999997</v>
+        <stp/>
+        <stp>BDP|12051770770243262701|22</stp>
+        <stp>IGLN LN Equity</stp>
+        <stp>LAST_PRICE</stp>
+        <tr r="C6" s="2"/>
+      </tp>
+      <tp>
+        <v>-6.1</v>
+        <stp/>
+        <stp>BDP|3957932723552737683|22</stp>
+        <stp>3750 HK Equity</stp>
+        <stp>RT_PX_CHG_NET_1D</stp>
+        <tr r="D16" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...4277606043</v>
         <stp/>
         <stp>BDP|9109736174406829347</stp>
         <tr r="F35" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDP|1813871049719514881</stp>
-        <tr r="E33" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDP|1594039234189838727</stp>
-        <tr r="C5" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4278811667</v>
         <stp/>
         <stp>BDP|5324107897017504686</stp>
         <tr r="G38" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDP|9851366812887695049</stp>
-        <tr r="D25" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4275500080</v>
         <stp/>
         <stp>BDP|8830540870086602079</stp>
         <tr r="H37" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4272123024</v>
         <stp/>
         <stp>BDP|6982004263968238455</stp>
         <tr r="G37" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4290065629</v>
         <stp/>
         <stp>BDP|9719497041435481069</stp>
         <tr r="H15" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4273203120</v>
         <stp/>
         <stp>BDP|6247764095165360107</stp>
         <tr r="H7" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDP|1727982507460178493</stp>
-        <tr r="E24" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4294296018</v>
         <stp/>
         <stp>BDP|5127514461408575224</stp>
         <tr r="F27" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDP|3957932723552737683</stp>
-        <tr r="D16" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4287425217</v>
         <stp/>
         <stp>BDP|3268029323305573822</stp>
         <tr r="I13" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4274152736</v>
         <stp/>
         <stp>BDP|6458015923648280002</stp>
         <tr r="H14" s="2"/>
       </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
+      <tp>
+        <v>10104.870000000001</v>
+        <stp/>
+        <stp>BDP|1594039234189838727|22</stp>
+        <stp>UKX Index</stp>
+        <stp>LAST_PRICE</stp>
+        <tr r="C5" s="2"/>
+      </tp>
+      <tp>
+        <v>0.75950002670288086</v>
+        <stp/>
+        <stp>BDP|9197614781236994721|22</stp>
+        <stp>IGLN LN Equity</stp>
+        <stp>RT_PX_CHG_PCT_1D</stp>
+        <tr r="E6" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...4294454693</v>
         <stp/>
         <stp>BDP|5225636553458127318</stp>
         <tr r="I9" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDP|7689669570202669942</stp>
-        <tr r="E19" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDP|1390436432229222236</stp>
-        <tr r="E11" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4289733153</v>
         <stp/>
         <stp>BDP|4224846601889118801</stp>
         <tr r="G36" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDP|8055576064445977008</stp>
-        <tr r="C11" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4289662762</v>
         <stp/>
         <stp>BDP|6343627779900306904</stp>
         <tr r="F24" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4276859721</v>
         <stp/>
         <stp>BDP|3010037756768995026</stp>
         <tr r="F2" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4284420543</v>
         <stp/>
         <stp>BDP|4483818458306536176</stp>
         <tr r="H4" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDP|1402105755382465996</stp>
-        <tr r="C32" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDP|9063213310330296407</stp>
-        <tr r="D32" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4280232109</v>
         <stp/>
         <stp>BDP|7268049620249126274</stp>
         <tr r="H12" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4291913190</v>
         <stp/>
         <stp>BDP|2191437043995955997</stp>
         <tr r="F7" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4286345459</v>
         <stp/>
         <stp>BDP|9996169415162514580</stp>
         <tr r="F38" s="2"/>
       </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
+      <tp>
+        <v>2055</v>
+        <stp/>
+        <stp>BDP|16434624473755799585|22</stp>
+        <stp>BA/ LN Equity</stp>
+        <stp>LAST_PRICE</stp>
+        <tr r="C23" s="2"/>
+      </tp>
+      <tp>
+        <v>-4.0816001892089844</v>
+        <stp/>
+        <stp>BDP|3605600574103696495|22</stp>
+        <stp>JEMA LN Equity</stp>
+        <stp>RT_PX_CHG_PCT_1D</stp>
+        <tr r="E31" s="2"/>
+      </tp>
+      <tp>
+        <v>6.9771999999999998</v>
+        <stp/>
+        <stp>BDP|16433475406981355789|22</stp>
+        <stp>USDCNY Curncy</stp>
+        <stp>LAST_PRICE</stp>
+        <tr r="C38" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...4281948955</v>
         <stp/>
         <stp>BDP|7560579468229911289</stp>
         <tr r="G8" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4290041523</v>
         <stp/>
         <stp>BDP|8574862939264440827</stp>
         <tr r="H24" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4291233535</v>
         <stp/>
         <stp>BDP|2531087507884508923</stp>
         <tr r="G29" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDP|4474274498790427023</stp>
-        <tr r="D12" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDP|9403255991688555578</stp>
-        <tr r="C10" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDP|4497697997395543196</stp>
-        <tr r="C20" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4291378729</v>
         <stp/>
         <stp>BDP|7654121486242604312</stp>
         <tr r="H8" s="2"/>
       </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDP|5458982140199075924</stp>
-        <tr r="D4" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
+      <tp>
+        <v>259.04000000000002</v>
+        <stp/>
+        <stp>BDP|8055576064445977008|22</stp>
+        <stp>AAPL US Equity</stp>
+        <stp>LAST_PRICE</stp>
+        <tr r="C11" s="2"/>
+      </tp>
+      <tp>
+        <v>11</v>
+        <stp/>
+        <stp>BDP|17295736934121751557|22</stp>
+        <stp>RR/ LN Equity</stp>
+        <stp>RT_PX_CHG_NET_1D</stp>
+        <tr r="D22" s="2"/>
+      </tp>
+      <tp>
+        <v>-0.73259997367858887</v>
+        <stp/>
+        <stp>BDP|17434287841994420203|22</stp>
+        <stp>OGN US Equity</stp>
+        <stp>RT_PX_CHG_PCT_1D</stp>
+        <tr r="E15" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...4287333624</v>
         <stp/>
         <stp>BDP|6521228789233444753</stp>
         <tr r="F16" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4291258780</v>
         <stp/>
         <stp>BDP|2880315707031759854</stp>
         <tr r="I32" s="2"/>
       </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDP|2643784526489972605</stp>
-        <tr r="D5" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDP|2393427917279107613</stp>
-        <tr r="D23" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDP|6617145454562277820</stp>
-        <tr r="D14" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDP|9160268865810066574</stp>
-        <tr r="D9" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDP|3162420132519898431</stp>
-        <tr r="D24" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
+      <tp>
+        <v>0.154</v>
+        <stp/>
+        <stp>BDP|7276511259559037780|22</stp>
+        <stp>MINE LN Equity</stp>
+        <stp>RT_PX_CHG_NET_1D</stp>
+        <tr r="D7" s="2"/>
+      </tp>
+      <tp>
+        <v>157.91</v>
+        <stp/>
+        <stp>BDP|14363970263129756099|22</stp>
+        <stp>USDJPY Curncy</stp>
+        <stp>LAST_PRICE</stp>
+        <tr r="C39" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...4293401753</v>
         <stp/>
         <stp>BDP|5100045279723230840</stp>
         <tr r="G21" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4294449199</v>
         <stp/>
         <stp>BDP|4422205808806428929</stp>
         <tr r="H16" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4294416672</v>
         <stp/>
         <stp>BDP|7971448215898256306</stp>
         <tr r="H26" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDP|9328385413396113468</stp>
-        <tr r="E4" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4294891720</v>
         <stp/>
         <stp>BDP|5996727485324895793</stp>
         <tr r="H38" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDP|1668730348673544851</stp>
-        <tr r="D6" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDP|8869200470152263680</stp>
-        <tr r="E3" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDP|7276511259559037780</stp>
-        <tr r="D7" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDP|9637940372468322631</stp>
-        <tr r="C40" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...141085691</v>
         <stp/>
         <stp>BDP|1494968822520771368</stp>
         <tr r="H35" s="2"/>
       </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDP|8429948576457362832</stp>
-        <tr r="D36" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDP|2986220289152141344</stp>
-        <tr r="D26" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDP|7681845166002514266</stp>
-        <tr r="C24" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDP|4208103477643752873</stp>
-        <tr r="D15" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDP|8961997484903833060</stp>
-        <tr r="E9" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
+      <tp>
+        <v>7.1999999999999998E-3</v>
+        <stp/>
+        <stp>BDP|9160268865810066574|22</stp>
+        <stp>FXAC NA Equity</stp>
+        <stp>RT_PX_CHG_NET_1D</stp>
+        <tr r="D9" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...41931970</v>
         <stp/>
         <stp>BDP|6855768278504934857</stp>
         <tr r="F5" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3472226623</v>
         <stp/>
         <stp>BDP|3710909662467700197</stp>
         <tr r="F19" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDP|7121948149318161869</stp>
-        <tr r="E21" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2682246080</v>
         <stp/>
         <stp>BDP|1480179701779847336</stp>
         <tr r="G18" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2046959110</v>
         <stp/>
         <stp>BDP|9055977960625307973</stp>
         <tr r="H10" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...1687733519</v>
         <stp/>
         <stp>BDP|9340206715218029866</stp>
         <tr r="G25" s="2"/>
       </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
+      <tp>
+        <v>0.51</v>
+        <stp/>
+        <stp>BDP|17600299909934463117|22</stp>
+        <stp>BRITISH AIRWAYS CDS EUR SR 5Y Corp</stp>
+        <stp>RT_PX_CHG_NET_1D</stp>
+        <tr r="D21" s="2"/>
+      </tp>
+      <tp>
+        <v>1.1367000341415405</v>
+        <stp/>
+        <stp>BDP|12185746505589525950|22</stp>
+        <stp>CON GR Equity</stp>
+        <stp>RT_PX_CHG_PCT_1D</stp>
+        <tr r="E34" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...2641425831</v>
         <stp/>
         <stp>BDP|9216032135853656280</stp>
         <tr r="I3" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3142218492</v>
         <stp/>
         <stp>BDP|3944084777187934851</stp>
         <tr r="G16" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDP|3207873935116218584</stp>
-        <tr r="E40" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...932373109</v>
         <stp/>
         <stp>BDP|9076312829667419423</stp>
         <tr r="F29" s="2"/>
       </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDP|9122413816081145693</stp>
-        <tr r="C14" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDP|2808494796474558000</stp>
-        <tr r="E20" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDP|1655203877408620747</stp>
-        <tr r="E22" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDP|6329020999266162295</stp>
-        <tr r="D10" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDP|9653383310122358291</stp>
-        <tr r="C41" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
+      <tp>
+        <v>-1.74</v>
+        <stp/>
+        <stp>BDP|13900049956600954022|22</stp>
+        <stp>JNJ US Equity</stp>
+        <stp>RT_PX_CHG_NET_1D</stp>
+        <tr r="D13" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...2637507981</v>
         <stp/>
         <stp>BDP|2138508063255915010</stp>
         <tr r="I22" s="2"/>
       </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDP|3192345212236175391</stp>
-        <tr r="C27" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
+      <tp>
+        <v>0.02</v>
+        <stp/>
+        <stp>BDP|4004730270766354589|22</stp>
+        <stp>CBUK GY Equity</stp>
+        <stp>RT_PX_CHG_NET_1D</stp>
+        <tr r="D8" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...1571150138</v>
         <stp/>
         <stp>BDP|9258452683346552723</stp>
         <tr r="I12" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDP|9251622605349132248</stp>
-        <tr r="D40" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...727347392</v>
         <stp/>
         <stp>BDP|2370977224319975497</stp>
         <tr r="G41" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDP|2243328945849060847</stp>
-        <tr r="C12" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDP|3646236613481802582</stp>
-        <tr r="D18" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2624717718</v>
         <stp/>
         <stp>BDP|8129829560034375648</stp>
         <tr r="G6" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDP|5266497981205363910</stp>
-        <tr r="E12" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDP|7669793763101124231</stp>
-        <tr r="D30" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2418261403</v>
         <stp/>
         <stp>BDP|7145486937834576174</stp>
         <tr r="F40" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3722380879</v>
         <stp/>
         <stp>BDP|5848383224784863508</stp>
         <tr r="F25" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDP|3605600574103696495</stp>
-        <tr r="E31" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3297306440</v>
         <stp/>
         <stp>BDP|8160612005749764228</stp>
         <tr r="G23" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...951209577</v>
         <stp/>
         <stp>BDP|4482602770772595206</stp>
         <tr r="G32" s="2"/>
       </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDP|9197614781236994721</stp>
-        <tr r="E6" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
+      <tp>
+        <v>-2.1521999835968018</v>
+        <stp/>
+        <stp>BDP|8869200470152263680|22</stp>
+        <stp>NVDA US Equity</stp>
+        <stp>RT_PX_CHG_PCT_1D</stp>
+        <tr r="E3" s="2"/>
+      </tp>
+      <tp>
+        <v>2.1770000457763672</v>
+        <stp/>
+        <stp>BDP|1103775576283436363|22</stp>
+        <stp>MINE LN Equity</stp>
+        <stp>RT_PX_CHG_PCT_1D</stp>
+        <tr r="E7" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...4055839318</v>
         <stp/>
         <stp>BDP|6892479126773010521</stp>
         <tr r="H2" s="2"/>
       </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDP|3876872004918020556</stp>
-        <tr r="E10" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDP|9635873607726334164</stp>
-        <tr r="E13" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
+      <tp>
+        <v>-0.49549999833106995</v>
+        <stp/>
+        <stp>BDP|1390436432229222236|22</stp>
+        <stp>AAPL US Equity</stp>
+        <stp>RT_PX_CHG_PCT_1D</stp>
+        <tr r="E11" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...630217372</v>
         <stp/>
         <stp>BDP|9068004636865649971</stp>
         <tr r="H18" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDP|2536876535509111638</stp>
-        <tr r="C42" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDP|4004730270766354589</stp>
-        <tr r="D8" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...79661105</v>
         <stp/>
         <stp>BDP|6783590224027386159</stp>
         <tr r="I16" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...470616383</v>
         <stp/>
         <stp>BDP|8003797495279612867</stp>
         <tr r="I41" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2500690974</v>
         <stp/>
         <stp>BDP|2092082027667507073</stp>
         <tr r="I5" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3828783675</v>
         <stp/>
         <stp>BDP|1470956287633257497</stp>
         <tr r="F14" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDP|8263106965958046051</stp>
-        <tr r="C35" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...1922500917</v>
         <stp/>
         <stp>BDP|2283962262138117258</stp>
         <tr r="F36" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDP|7440769568831153095</stp>
-        <tr r="D39" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDP|3252326477349184959</stp>
-        <tr r="E41" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3230309776</v>
         <stp/>
         <stp>BDP|8256528446759141749</stp>
         <tr r="H34" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3260611153</v>
         <stp/>
         <stp>BDP|4948025246751409692</stp>
         <tr r="G22" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDP|9153568951839777700</stp>
-        <tr r="C19" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...1022658309</v>
         <stp/>
         <stp>BDP|6273254855110508619</stp>
         <tr r="G31" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3449707024</v>
         <stp/>
         <stp>BDP|2402734528145119587</stp>
         <tr r="I23" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3525898271</v>
         <stp/>
         <stp>BDP|1237615668261784790</stp>
         <tr r="H22" s="2"/>
       </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
+      <tp>
+        <v>3.49</v>
+        <stp/>
+        <stp>BDP|14006008219251660958|22</stp>
+        <stp>PG US Equity</stp>
+        <stp>RT_PX_CHG_NET_1D</stp>
+        <tr r="D27" s="2"/>
+      </tp>
+      <tp>
+        <v>1.83</v>
+        <stp/>
+        <stp>BDP|15903019331601790942|22</stp>
+        <stp>KO US Equity</stp>
+        <stp>RT_PX_CHG_NET_1D</stp>
+        <tr r="D33" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...1558025308</v>
         <stp/>
         <stp>BDP|3424174147663723597</stp>
         <tr r="F12" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...1419700850</v>
         <stp/>
         <stp>BDP|5613288614071837799</stp>
         <tr r="I2" s="2"/>
       </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
+      <tp>
+        <v>-0.05</v>
+        <stp/>
+        <stp>BDP|2986220289152141344|22</stp>
+        <stp>CBU0 LN Equity</stp>
+        <stp>RT_PX_CHG_NET_1D</stp>
+        <tr r="D26" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...2951411010</v>
         <stp/>
         <stp>BDP|1166463665435984633</stp>
         <tr r="I7" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2509963597</v>
         <stp/>
         <stp>BDP|5838727540121466777</stp>
         <tr r="F30" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3582086648</v>
         <stp/>
         <stp>BDP|8274731171491789949</stp>
         <tr r="G3" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDP|4491543040142409756</stp>
-        <tr r="C13" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDP|8465042404690683837</stp>
-        <tr r="E14" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDP|1019546149324925451</stp>
-        <tr r="E27" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2379997727</v>
         <stp/>
         <stp>BDP|2234948090263733171</stp>
         <tr r="I19" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDP|1189818855878137403</stp>
-        <tr r="E5" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2298272869</v>
         <stp/>
         <stp>BDP|7505554334637623678</stp>
         <tr r="G34" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDP|1268961494542685334</stp>
-        <tr r="E32" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...1374230944</v>
         <stp/>
         <stp>BDP|8715484707489933547</stp>
         <tr r="I14" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2577073771</v>
         <stp/>
         <stp>BDP|9727812033650838365</stp>
         <tr r="I37" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...146389828</v>
         <stp/>
         <stp>BDP|3672783143288450927</stp>
         <tr r="I10" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3572392944</v>
         <stp/>
         <stp>BDP|9318893502329070915</stp>
         <tr r="G9" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...580493409</v>
         <stp/>
         <stp>BDP|8267719897556193183</stp>
         <tr r="I29" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDP|1103775576283436363</stp>
-        <tr r="E7" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...98115968</v>
         <stp/>
         <stp>BDP|6650292152931839150</stp>
         <tr r="H39" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDP|3613685676553800010</stp>
-        <tr r="E37" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...1883770653</v>
         <stp/>
         <stp>BDP|8139380886094184688</stp>
         <tr r="G28" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2369313503</v>
         <stp/>
         <stp>BDP|5378018664922345028</stp>
         <tr r="F28" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3448056605</v>
         <stp/>
         <stp>BDP|1777938155178798428</stp>
         <tr r="H13" s="2"/>
       </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDP|3832354416143870370</stp>
-        <tr r="D34" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
+      <tp>
+        <v>69.37</v>
+        <stp/>
+        <stp>BDP|16867424875097710325|22</stp>
+        <stp>KO US Equity</stp>
+        <stp>LAST_PRICE</stp>
+        <tr r="C33" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...2360712718</v>
         <stp/>
         <stp>BDP|4610781324404418766</stp>
         <tr r="G12" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...983096659</v>
         <stp/>
         <stp>BDP|3526211911733869129</stp>
         <tr r="F37" s="2"/>
       </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
+      <tp>
+        <v>0.65751000000000004</v>
+        <stp/>
+        <stp>BDP|1668730348673544851|22</stp>
+        <stp>IGLN LN Equity</stp>
+        <stp>RT_PX_CHG_NET_1D</stp>
+        <tr r="D6" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...636109763</v>
         <stp/>
         <stp>BDP|8320361190952523221</stp>
         <tr r="F23" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...4287320752</v>
         <stp/>
         <stp>BDP|2425136171527217175</stp>
         <tr r="H17" s="2"/>
       </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDP|2630581548609766860</stp>
-        <tr r="C3" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDP|1974149410370576232</stp>
-        <tr r="D20" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
+      <tp>
+        <v>-0.15600000321865082</v>
+        <stp/>
+        <stp>BDP|14152960264311473340|22</stp>
+        <stp>EMB US Equity</stp>
+        <stp>RT_PX_CHG_PCT_1D</stp>
+        <tr r="E25" s="2"/>
+      </tp>
+      <tp>
+        <v>497.4</v>
+        <stp/>
+        <stp>BDP|12356534598236212935|22</stp>
+        <stp>3750 HK Equity</stp>
+        <stp>LAST_PRICE</stp>
+        <tr r="C16" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...2738394261</v>
         <stp/>
         <stp>BDP|4529756216185433497</stp>
         <tr r="I4" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3079823846</v>
         <stp/>
         <stp>BDP|3737266429112626261</stp>
         <tr r="G24" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDP|6394099357891618155</stp>
-        <tr r="E30" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDP|7419119401472888737</stp>
-        <tr r="C26" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...533594496</v>
         <stp/>
         <stp>BDP|7644498219727310693</stp>
         <tr r="H9" s="2"/>
       </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
+      <tp>
+        <v>0.16220000386238098</v>
+        <stp/>
+        <stp>BDP|8961997484903833060|22</stp>
+        <stp>FXAC NA Equity</stp>
+        <stp>RT_PX_CHG_PCT_1D</stp>
+        <tr r="E9" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...1125732999</v>
         <stp/>
         <stp>BDP|9154808792743677855</stp>
         <tr r="G11" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...601978069</v>
         <stp/>
         <stp>BDP|8488664323876292937</stp>
         <tr r="H32" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDP|2094566810415125063</stp>
-        <tr r="D2" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...765841963</v>
         <stp/>
         <stp>BDP|9071927210884761632</stp>
         <tr r="I38" s="2"/>
+      </tp>
+      <tp>
+        <v>1.5817999839782715</v>
+        <stp/>
+        <stp>BDP|16688428108077739203|22</stp>
+        <stp>BA/ LN Equity</stp>
+        <stp>RT_PX_CHG_PCT_1D</stp>
+        <tr r="E23" s="2"/>
+      </tp>
+      <tp>
+        <v>204.68</v>
+        <stp/>
+        <stp>BDP|13806753115830245115|22</stp>
+        <stp>AMD US Equity</stp>
+        <stp>LAST_PRICE</stp>
+        <tr r="C4" s="2"/>
+      </tp>
+      <tp>
+        <v>87.22</v>
+        <stp/>
+        <stp>BDP|17470882591961521382|22</stp>
+        <stp>SO US Equity</stp>
+        <stp>LAST_PRICE</stp>
+        <tr r="C30" s="2"/>
+      </tp>
+      <tp>
+        <v>8.1300000000000008</v>
+        <stp/>
+        <stp>BDP|14042046800306843807|22</stp>
+        <stp>OGN US Equity</stp>
+        <stp>LAST_PRICE</stp>
+        <tr r="C15" s="2"/>
+      </tp>
+      <tp>
+        <v>1.49</v>
+        <stp/>
+        <stp>BDP|8429948576457362832|22</stp>
+        <stp>SBUX US Equity</stp>
+        <stp>RT_PX_CHG_NET_1D</stp>
+        <tr r="D36" s="2"/>
+      </tp>
+      <tp>
+        <v>90.53</v>
+        <stp/>
+        <stp>BDP|8263106965958046051|22</stp>
+        <stp>NFLX US Equity</stp>
+        <stp>LAST_PRICE</stp>
+        <tr r="C35" s="2"/>
+      </tp>
+      <tp>
+        <v>185.04</v>
+        <stp/>
+        <stp>BDP|2630581548609766860|22</stp>
+        <stp>NVDA US Equity</stp>
+        <stp>LAST_PRICE</stp>
+        <tr r="C3" s="2"/>
+      </tp>
+      <tp>
+        <v>1283.5</v>
+        <stp/>
+        <stp>BDP|12835113743389862241|22</stp>
+        <stp>RR/ LN Equity</stp>
+        <stp>LAST_PRICE</stp>
+        <tr r="C22" s="2"/>
       </tp>
       <tp>
         <v>6921.46</v>
@@ -2382,100 +2394,364 @@
         <tr r="C2" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...770792533</v>
         <stp/>
         <stp>BDP|79426159024995079</stp>
         <tr r="G2" s="2"/>
       </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
+      <tp>
+        <v>908.91989999999998</v>
+        <stp/>
+        <stp>BDP|11739359662249823397|22</stp>
+        <stp>JGB1X SW Equity</stp>
+        <stp>LAST_PRICE</stp>
+        <tr r="C37" s="2"/>
+      </tp>
+      <tp>
+        <v>154.71</v>
+        <stp/>
+        <stp>BDP|7419119401472888737|22</stp>
+        <stp>CBU0 LN Equity</stp>
+        <stp>LAST_PRICE</stp>
+        <tr r="C26" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...2434232853</v>
         <stp/>
         <stp>BDP|357729521474728481</stp>
         <tr r="G40" s="2"/>
       </tp>
+      <tp>
+        <v>-4.07</v>
+        <stp/>
+        <stp>BDP|11207419032966624738|22</stp>
+        <stp>NVDA US Equity</stp>
+        <stp>RT_PX_CHG_NET_1D</stp>
+        <tr r="D3" s="2"/>
+      </tp>
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDP|480389239997635209</stp>
-        <tr r="C34" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
+        <stp>BDP|922690474203122722</stp>
+        <tr r="J2" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...113437923</v>
         <stp/>
         <stp>BDP|760440623146666554</stp>
         <tr r="F34" s="2"/>
       </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
+      <tp>
+        <v>-3.229999914765358E-2</v>
+        <stp/>
+        <stp>BDP|13226202059161788941|22</stp>
+        <stp>CBU0 LN Equity</stp>
+        <stp>RT_PX_CHG_PCT_1D</stp>
+        <tr r="E26" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...931698789</v>
         <stp/>
         <stp>BDP|483229239342525738</stp>
         <tr r="F17" s="2"/>
       </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDP|299636303602419036</stp>
-        <tr r="C25" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
+      <tp>
+        <v>-2.63</v>
+        <stp/>
+        <stp>BDP|10942320600164745753|22</stp>
+        <stp>META US Equity</stp>
+        <stp>RT_PX_CHG_NET_1D</stp>
+        <tr r="D17" s="2"/>
+      </tp>
+      <tp>
+        <v>227.38</v>
+        <stp/>
+        <stp>BDP|4497697997395543196|22</stp>
+        <stp>BA US Equity</stp>
+        <stp>LAST_PRICE</stp>
+        <tr r="C20" s="2"/>
+      </tp>
+      <tp>
+        <v>-0.22040000557899475</v>
+        <stp/>
+        <stp>BDP|14505828566708507481|22</stp>
+        <stp>NFLX US Equity</stp>
+        <stp>RT_PX_CHG_PCT_1D</stp>
+        <tr r="E35" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...2611843366</v>
         <stp/>
         <stp>BDP|310580161743281787</stp>
         <tr r="H42" s="2"/>
       </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDP|947780228852389168</stp>
-        <tr r="D19" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
+      <tp>
+        <v>0.19</v>
+        <stp/>
+        <stp>BDP|16162101806491084768|22</stp>
+        <stp>NEXT US Equity</stp>
+        <stp>RT_PX_CHG_NET_1D</stp>
+        <tr r="D29" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...1453860256</v>
         <stp/>
         <stp>BDP|847331005892328754</stp>
         <tr r="I17" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2295667559</v>
         <stp/>
         <stp>BDP|242518510675506727</stp>
         <tr r="H33" s="2"/>
       </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
+      <tp>
+        <v>3.7848999500274658</v>
+        <stp/>
+        <stp>BDP|16966964530970065805|22</stp>
+        <stp>NEXT US Equity</stp>
+        <stp>RT_PX_CHG_PCT_1D</stp>
+        <tr r="E29" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...2921518997</v>
         <stp/>
         <stp>BDP|297532439996291070</stp>
         <tr r="I35" s="2"/>
       </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDP|364995093153659099</stp>
-        <tr r="D31" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
+      <tp>
+        <v>-0.40540000796318054</v>
+        <stp/>
+        <stp>BDP|14686532303935796165|22</stp>
+        <stp>META US Equity</stp>
+        <stp>RT_PX_CHG_PCT_1D</stp>
+        <tr r="E17" s="2"/>
+      </tp>
+      <tp>
+        <v>4.7300000000000004</v>
+        <stp/>
+        <stp>BDP|11062202761214578004|22</stp>
+        <stp>AMZN US Equity</stp>
+        <stp>RT_PX_CHG_NET_1D</stp>
+        <tr r="D28" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3430916926</v>
         <stp/>
         <stp>BDP|467282091859039011</stp>
         <tr r="I42" s="2"/>
       </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDP|398813434321843671</stp>
-        <tr r="E8" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
+      <tp>
+        <v>-0.2</v>
+        <stp/>
+        <stp>BDP|17616121733958148081|22</stp>
+        <stp>NFLX US Equity</stp>
+        <stp>RT_PX_CHG_NET_1D</stp>
+        <tr r="D35" s="2"/>
+      </tp>
+      <tp>
+        <v>0.71100002527236938</v>
+        <stp/>
+        <stp>BDP|7121948149318161869|22</stp>
+        <stp>BRITISH AIRWAYS CDS EUR SR 5Y Corp</stp>
+        <stp>RT_PX_CHG_PCT_1D</stp>
+        <tr r="E21" s="2"/>
+      </tp>
+      <tp>
+        <v>1.9580999612808228</v>
+        <stp/>
+        <stp>BDP|11570168183733824919|22</stp>
+        <stp>AMZN US Equity</stp>
+        <stp>RT_PX_CHG_PCT_1D</stp>
+        <tr r="E28" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...2919715884</v>
         <stp/>
         <stp>BDP|722408630037416887</stp>
         <tr r="F11" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2909228458</v>
         <stp/>
         <stp>BDP|457871624171042199</stp>
         <tr r="F18" s="2"/>
+      </tp>
+      <tp>
+        <v>-1.29</v>
+        <stp/>
+        <stp>BDP|13009081181692174557|22</stp>
+        <stp>AAPL US Equity</stp>
+        <stp>RT_PX_CHG_NET_1D</stp>
+        <tr r="D11" s="2"/>
+      </tp>
+      <tp>
+        <v>0.42809998989105225</v>
+        <stp/>
+        <stp>BDP|398813434321843671|22</stp>
+        <stp>CBUK GY Equity</stp>
+        <stp>RT_PX_CHG_PCT_1D</stp>
+        <tr r="E8" s="2"/>
+      </tp>
+      <tp>
+        <v>32</v>
+        <stp/>
+        <stp>BDP|2393427917279107613|22</stp>
+        <stp>BA/ LN Equity</stp>
+        <stp>RT_PX_CHG_NET_1D</stp>
+        <tr r="D23" s="2"/>
+      </tp>
+      <tp>
+        <v>141.53</v>
+        <stp/>
+        <stp>BDP|3192345212236175391|22</stp>
+        <stp>PG US Equity</stp>
+        <stp>LAST_PRICE</stp>
+        <tr r="C27" s="2"/>
+      </tp>
+      <tp>
+        <v>3.9599999785423279E-2</v>
+        <stp/>
+        <stp>BDP|8465042404690683837|22</stp>
+        <stp>PFE US Equity</stp>
+        <stp>RT_PX_CHG_PCT_1D</stp>
+        <tr r="E14" s="2"/>
+      </tp>
+      <tp>
+        <v>-2.5425999164581299</v>
+        <stp/>
+        <stp>BDP|9328385413396113468|22</stp>
+        <stp>AMD US Equity</stp>
+        <stp>RT_PX_CHG_PCT_1D</stp>
+        <tr r="E4" s="2"/>
+      </tp>
+      <tp>
+        <v>-0.15</v>
+        <stp/>
+        <stp>BDP|9851366812887695049|22</stp>
+        <stp>EMB US Equity</stp>
+        <stp>RT_PX_CHG_NET_1D</stp>
+        <tr r="D25" s="2"/>
+      </tp>
+      <tp>
+        <v>-1.08</v>
+        <stp/>
+        <stp>BDP|3162420132519898431|22</stp>
+        <stp>MDT US Equity</stp>
+        <stp>RT_PX_CHG_NET_1D</stp>
+        <tr r="D24" s="2"/>
+      </tp>
+      <tp>
+        <v>0.01</v>
+        <stp/>
+        <stp>BDP|6617145454562277820|22</stp>
+        <stp>PFE US Equity</stp>
+        <stp>RT_PX_CHG_NET_1D</stp>
+        <tr r="D14" s="2"/>
+      </tp>
+      <tp>
+        <v>2.9199000000000002</v>
+        <stp/>
+        <stp>BDP|11103936965802558014|22</stp>
+        <stp>JGB1X SW Equity</stp>
+        <stp>RT_PX_CHG_NET_1D</stp>
+        <tr r="D37" s="2"/>
+      </tp>
+      <tp>
+        <v>-0.79000002145767212</v>
+        <stp/>
+        <stp>BDP|7689669570202669942|22</stp>
+        <stp>AIR FP Equity</stp>
+        <stp>RT_PX_CHG_PCT_1D</stp>
+        <tr r="E19" s="2"/>
+      </tp>
+      <tp>
+        <v>0.86440002918243408</v>
+        <stp/>
+        <stp>BDP|1655203877408620747|22</stp>
+        <stp>RR/ LN Equity</stp>
+        <stp>RT_PX_CHG_PCT_1D</stp>
+        <tr r="E22" s="2"/>
+      </tp>
+      <tp>
+        <v>1.0745999813079834</v>
+        <stp/>
+        <stp>BDP|15725657548819232897|22</stp>
+        <stp>GOOGL US Equity</stp>
+        <stp>RT_PX_CHG_PCT_1D</stp>
+        <tr r="E18" s="2"/>
+      </tp>
+      <tp>
+        <v>-22.9</v>
+        <stp/>
+        <stp>BDP|4474274498790427023|22</stp>
+        <stp>LLY US Equity</stp>
+        <stp>RT_PX_CHG_NET_1D</stp>
+        <tr r="D12" s="2"/>
+      </tp>
+      <tp>
+        <v>-5.34</v>
+        <stp/>
+        <stp>BDP|5458982140199075924|22</stp>
+        <stp>AMD US Equity</stp>
+        <stp>RT_PX_CHG_NET_1D</stp>
+        <tr r="D4" s="2"/>
+      </tp>
+      <tp>
+        <v>-2.0666000843048096</v>
+        <stp/>
+        <stp>BDP|5266497981205363910|22</stp>
+        <stp>LLY US Equity</stp>
+        <stp>RT_PX_CHG_PCT_1D</stp>
+        <tr r="E12" s="2"/>
+      </tp>
+      <tp>
+        <v>1.7187999486923218</v>
+        <stp/>
+        <stp>BDP|16664691158481139397|22</stp>
+        <stp>SBUX US Equity</stp>
+        <stp>RT_PX_CHG_PCT_1D</stp>
+        <tr r="E36" s="2"/>
+      </tp>
+      <tp>
+        <v>-10</v>
+        <stp/>
+        <stp>BDP|364995093153659099|22</stp>
+        <stp>JEMA LN Equity</stp>
+        <stp>RT_PX_CHG_NET_1D</stp>
+        <tr r="D31" s="2"/>
+      </tp>
+      <tp>
+        <v>-0.06</v>
+        <stp/>
+        <stp>BDP|4208103477643752873|22</stp>
+        <stp>OGN US Equity</stp>
+        <stp>RT_PX_CHG_NET_1D</stp>
+        <tr r="D15" s="2"/>
+      </tp>
+      <tp>
+        <v>-1.0824999809265137</v>
+        <stp/>
+        <stp>BDP|1727982507460178493|22</stp>
+        <stp>MDT US Equity</stp>
+        <stp>RT_PX_CHG_PCT_1D</stp>
+        <tr r="E24" s="2"/>
+      </tp>
+      <tp>
+        <v>-0.83859997987747192</v>
+        <stp/>
+        <stp>BDP|9635873607726334164|22</stp>
+        <stp>JNJ US Equity</stp>
+        <stp>RT_PX_CHG_PCT_1D</stp>
+        <tr r="E13" s="2"/>
+      </tp>
+      <tp>
+        <v>0.78</v>
+        <stp/>
+        <stp>BDP|3832354416143870370|22</stp>
+        <stp>CON GR Equity</stp>
+        <stp>RT_PX_CHG_NET_1D</stp>
+        <tr r="D34" s="2"/>
       </tp>
     </main>
   </volType>
@@ -2769,26 +3045,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.140625" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" customWidth="1"/>
     <col min="4" max="4" width="15.7109375" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" customWidth="1"/>
     <col min="6" max="6" width="54.85546875" customWidth="1"/>
     <col min="7" max="7" width="12.5703125" customWidth="1"/>
     <col min="8" max="8" width="7.42578125" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2816,8 +3092,11 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -2828,17 +3107,17 @@
         <f>_xll.BDP("SPX Index","LAST_PRICE")</f>
         <v>6921.46</v>
       </c>
-      <c r="D2" t="str">
+      <c r="D2">
         <f>_xll.BDP("SPX Index","RT_PX_CHG_NET_1D")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="E2" t="str">
+        <v>0.53</v>
+      </c>
+      <c r="E2">
         <f>_xll.BDP("SPX Index","RT_PX_CHG_PCT_1D")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>7.6999999582767487E-3</v>
       </c>
       <c r="F2" t="str">
         <f>_xll.BDP("SPX Index","NAME")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>S&amp;P 500 INDEX</v>
       </c>
       <c r="G2" t="str">
         <f>_xll.BDP("SPX Index","REL_YTD")</f>
@@ -2846,35 +3125,39 @@
       </c>
       <c r="H2" t="str">
         <f>_xll.BDP("SPX Index","CRNCY")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>USD</v>
       </c>
       <c r="I2" t="str">
         <f>_xll.BDP("SPX Index","SECURITY_TYP")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>Equity Index</v>
+      </c>
+      <c r="J2" t="str" cm="1">
+        <f t="array" ref="J2">_xll.BDP("LLY US Equity", "EQY_BETA_BMK")</f>
+        <v>#N/A Invalid Field</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
       <c r="B3">
         <v>50</v>
       </c>
-      <c r="C3" t="str">
+      <c r="C3">
         <f>_xll.BDP("NVDA US Equity","LAST_PRICE")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="D3" t="str">
+        <v>185.04</v>
+      </c>
+      <c r="D3">
         <f>_xll.BDP("NVDA US Equity","RT_PX_CHG_NET_1D")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="E3" t="str">
+        <v>-4.07</v>
+      </c>
+      <c r="E3">
         <f>_xll.BDP("NVDA US Equity","RT_PX_CHG_PCT_1D")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>-2.1521999835968018</v>
       </c>
       <c r="F3" t="str">
         <f>_xll.BDP("NVDA US Equity","NAME")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>NVIDIA CORP</v>
       </c>
       <c r="G3">
         <f>_xll.BDP("NVDA US Equity","REL_YTD")</f>
@@ -2882,35 +3165,35 @@
       </c>
       <c r="H3" t="str">
         <f>_xll.BDP("NVDA US Equity","CRNCY")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>USD</v>
       </c>
       <c r="I3" t="str">
         <f>_xll.BDP("NVDA US Equity","SECURITY_TYP")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>Common Stock</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
       <c r="B4">
         <v>50</v>
       </c>
-      <c r="C4" t="str">
+      <c r="C4">
         <f>_xll.BDP("AMD US Equity","LAST_PRICE")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="D4" t="str">
+        <v>204.68</v>
+      </c>
+      <c r="D4">
         <f>_xll.BDP("AMD US Equity","RT_PX_CHG_NET_1D")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="E4" t="str">
+        <v>-5.34</v>
+      </c>
+      <c r="E4">
         <f>_xll.BDP("AMD US Equity","RT_PX_CHG_PCT_1D")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>-2.5425999164581299</v>
       </c>
       <c r="F4" t="str">
         <f>_xll.BDP("AMD US Equity","NAME")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>ADVANCED MICRO DEVICES</v>
       </c>
       <c r="G4">
         <f>_xll.BDP("AMD US Equity","REL_YTD")</f>
@@ -2922,27 +3205,27 @@
       </c>
       <c r="I4" t="str">
         <f>_xll.BDP("AMD US Equity","SECURITY_TYP")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>Common Stock</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
       <c r="B5">
         <v>100</v>
       </c>
-      <c r="C5" t="str">
+      <c r="C5">
         <f>_xll.BDP("UKX Index","LAST_PRICE")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="D5" t="str">
+        <v>10104.870000000001</v>
+      </c>
+      <c r="D5">
         <f>_xll.BDP("UKX Index","RT_PX_CHG_NET_1D")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="E5" t="str">
+        <v>60.18</v>
+      </c>
+      <c r="E5">
         <f>_xll.BDP("UKX Index","RT_PX_CHG_PCT_1D")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>0.59909999370574951</v>
       </c>
       <c r="F5" t="str">
         <f>_xll.BDP("UKX Index","NAME")</f>
@@ -2954,407 +3237,407 @@
       </c>
       <c r="H5" t="str">
         <f>_xll.BDP("UKX Index","CRNCY")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>GBP</v>
       </c>
       <c r="I5" t="str">
         <f>_xll.BDP("UKX Index","SECURITY_TYP")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>Equity Index</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
       <c r="B6">
         <v>300</v>
       </c>
-      <c r="C6" t="str">
+      <c r="C6">
         <f>_xll.BDP("IGLN LN Equity","LAST_PRICE")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="D6" t="str">
+        <v>87.225009999999997</v>
+      </c>
+      <c r="D6">
         <f>_xll.BDP("IGLN LN Equity","RT_PX_CHG_NET_1D")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="E6" t="str">
+        <v>0.65751000000000004</v>
+      </c>
+      <c r="E6">
         <f>_xll.BDP("IGLN LN Equity","RT_PX_CHG_PCT_1D")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>0.75950002670288086</v>
       </c>
       <c r="F6" t="str">
         <f>_xll.BDP("IGLN LN Equity","NAME")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="G6" t="str">
+        <v>ISHARES PHYSICAL GOLD ETC</v>
+      </c>
+      <c r="G6">
         <f>_xll.BDP("IGLN LN Equity","REL_YTD")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>2.2543890000000002</v>
       </c>
       <c r="H6" t="str">
         <f>_xll.BDP("IGLN LN Equity","CRNCY")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>USD</v>
       </c>
       <c r="I6" t="str">
         <f>_xll.BDP("IGLN LN Equity","SECURITY_TYP")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>ETP</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
       <c r="B7">
         <v>300</v>
       </c>
-      <c r="C7" t="str">
+      <c r="C7">
         <f>_xll.BDP("MINE LN Equity","LAST_PRICE")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="D7" t="str">
+        <v>7.2279999999999998</v>
+      </c>
+      <c r="D7">
         <f>_xll.BDP("MINE LN Equity","RT_PX_CHG_NET_1D")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="E7" t="str">
+        <v>0.154</v>
+      </c>
+      <c r="E7">
         <f>_xll.BDP("MINE LN Equity","RT_PX_CHG_PCT_1D")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>2.1770000457763672</v>
       </c>
       <c r="F7" t="str">
         <f>_xll.BDP("MINE LN Equity","NAME")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="G7" t="str">
+        <v>ISHARES COPPER MINERS UCITS</v>
+      </c>
+      <c r="G7">
         <f>_xll.BDP("MINE LN Equity","REL_YTD")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>4.1792769999999999</v>
       </c>
       <c r="H7" t="str">
         <f>_xll.BDP("MINE LN Equity","CRNCY")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>GBP</v>
       </c>
       <c r="I7" t="str">
         <f>_xll.BDP("MINE LN Equity","SECURITY_TYP")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>ETP</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
       <c r="B8">
         <v>100</v>
       </c>
-      <c r="C8" t="str">
+      <c r="C8">
         <f>_xll.BDP("CBUK GY Equity","LAST_PRICE")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="D8" t="str">
+        <v>4.6920000000000002</v>
+      </c>
+      <c r="D8">
         <f>_xll.BDP("CBUK GY Equity","RT_PX_CHG_NET_1D")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="E8" t="str">
+        <v>0.02</v>
+      </c>
+      <c r="E8">
         <f>_xll.BDP("CBUK GY Equity","RT_PX_CHG_PCT_1D")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>0.42809998989105225</v>
       </c>
       <c r="F8" t="str">
         <f>_xll.BDP("CBUK GY Equity","NAME")</f>
         <v>ISHARES CHINA TECH USD ACC</v>
       </c>
-      <c r="G8" t="str">
+      <c r="G8">
         <f>_xll.BDP("CBUK GY Equity","REL_YTD")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>0.82110819999999995</v>
       </c>
       <c r="H8" t="str">
         <f>_xll.BDP("CBUK GY Equity","CRNCY")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>EUR</v>
       </c>
       <c r="I8" t="str">
         <f>_xll.BDP("CBUK GY Equity","SECURITY_TYP")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>ETP</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
       <c r="B9">
         <v>100</v>
       </c>
-      <c r="C9" t="str">
+      <c r="C9">
         <f>_xll.BDP("FXAC NA Equity","LAST_PRICE")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="D9" t="str">
+        <v>4.4463999999999997</v>
+      </c>
+      <c r="D9">
         <f>_xll.BDP("FXAC NA Equity","RT_PX_CHG_NET_1D")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="E9" t="str">
+        <v>7.1999999999999998E-3</v>
+      </c>
+      <c r="E9">
         <f>_xll.BDP("FXAC NA Equity","RT_PX_CHG_PCT_1D")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>0.16220000386238098</v>
       </c>
       <c r="F9" t="str">
         <f>_xll.BDP("FXAC NA Equity","NAME")</f>
         <v>ISHARES CHINA LARGE CAP USDA</v>
       </c>
-      <c r="G9" t="str">
+      <c r="G9">
         <f>_xll.BDP("FXAC NA Equity","REL_YTD")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>-0.27920329999999999</v>
       </c>
       <c r="H9" t="str">
         <f>_xll.BDP("FXAC NA Equity","CRNCY")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>EUR</v>
       </c>
       <c r="I9" t="str">
         <f>_xll.BDP("FXAC NA Equity","SECURITY_TYP")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>ETP</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
       <c r="B10">
         <v>10</v>
       </c>
-      <c r="C10" t="str">
+      <c r="C10">
         <f>_xll.BDP("2899 HK Equity","LAST_PRICE")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="D10" t="str">
+        <v>38.26</v>
+      </c>
+      <c r="D10">
         <f>_xll.BDP("2899 HK Equity","RT_PX_CHG_NET_1D")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="E10" t="str">
+        <v>1.06</v>
+      </c>
+      <c r="E10">
         <f>_xll.BDP("2899 HK Equity","RT_PX_CHG_PCT_1D")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>2.8494999408721924</v>
       </c>
       <c r="F10" t="str">
         <f>_xll.BDP("2899 HK Equity","NAME")</f>
         <v>ZIJIN MINING GROUP CO LTD-H</v>
       </c>
-      <c r="G10" t="str">
+      <c r="G10">
         <f>_xll.BDP("2899 HK Equity","REL_YTD")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>4.8319000000000001</v>
       </c>
       <c r="H10" t="str">
         <f>_xll.BDP("2899 HK Equity","CRNCY")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>HKD</v>
       </c>
       <c r="I10" t="str">
         <f>_xll.BDP("2899 HK Equity","SECURITY_TYP")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>Common Stock</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
       <c r="B11">
         <v>20</v>
       </c>
-      <c r="C11" t="str">
+      <c r="C11">
         <f>_xll.BDP("AAPL US Equity","LAST_PRICE")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="D11" t="str">
+        <v>259.04000000000002</v>
+      </c>
+      <c r="D11">
         <f>_xll.BDP("AAPL US Equity","RT_PX_CHG_NET_1D")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="E11" t="str">
+        <v>-1.29</v>
+      </c>
+      <c r="E11">
         <f>_xll.BDP("AAPL US Equity","RT_PX_CHG_PCT_1D")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>-0.49549999833106995</v>
       </c>
       <c r="F11" t="str">
         <f>_xll.BDP("AAPL US Equity","NAME")</f>
         <v>APPLE INC</v>
       </c>
-      <c r="G11" t="str">
+      <c r="G11">
         <f>_xll.BDP("AAPL US Equity","REL_YTD")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>-5.761361</v>
       </c>
       <c r="H11" t="str">
         <f>_xll.BDP("AAPL US Equity","CRNCY")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>USD</v>
       </c>
       <c r="I11" t="str">
         <f>_xll.BDP("AAPL US Equity","SECURITY_TYP")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>Common Stock</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
       <c r="B12">
         <v>20</v>
       </c>
-      <c r="C12" t="str">
+      <c r="C12">
         <f>_xll.BDP("LLY US Equity","LAST_PRICE")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="D12" t="str">
+        <v>1085.19</v>
+      </c>
+      <c r="D12">
         <f>_xll.BDP("LLY US Equity","RT_PX_CHG_NET_1D")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="E12" t="str">
+        <v>-22.9</v>
+      </c>
+      <c r="E12">
         <f>_xll.BDP("LLY US Equity","RT_PX_CHG_PCT_1D")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>-2.0666000843048096</v>
       </c>
       <c r="F12" t="str">
         <f>_xll.BDP("LLY US Equity","NAME")</f>
         <v>ELI LILLY &amp; CO</v>
       </c>
-      <c r="G12" t="str">
+      <c r="G12">
         <f>_xll.BDP("LLY US Equity","REL_YTD")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>-0.13022800000000001</v>
       </c>
       <c r="H12" t="str">
         <f>_xll.BDP("LLY US Equity","CRNCY")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>USD</v>
       </c>
       <c r="I12" t="str">
         <f>_xll.BDP("LLY US Equity","SECURITY_TYP")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>Common Stock</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>20</v>
       </c>
       <c r="B13">
         <v>20</v>
       </c>
-      <c r="C13" t="str">
+      <c r="C13">
         <f>_xll.BDP("JNJ US Equity","LAST_PRICE")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="D13" t="str">
+        <v>205.75</v>
+      </c>
+      <c r="D13">
         <f>_xll.BDP("JNJ US Equity","RT_PX_CHG_NET_1D")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="E13" t="str">
+        <v>-1.74</v>
+      </c>
+      <c r="E13">
         <f>_xll.BDP("JNJ US Equity","RT_PX_CHG_PCT_1D")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>-0.83859997987747192</v>
       </c>
       <c r="F13" t="str">
         <f>_xll.BDP("JNJ US Equity","NAME")</f>
         <v>JOHNSON &amp; JOHNSON</v>
       </c>
-      <c r="G13" t="str">
+      <c r="G13">
         <f>_xll.BDP("JNJ US Equity","REL_YTD")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>-1.670941</v>
       </c>
       <c r="H13" t="str">
         <f>_xll.BDP("JNJ US Equity","CRNCY")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>USD</v>
       </c>
       <c r="I13" t="str">
         <f>_xll.BDP("JNJ US Equity","SECURITY_TYP")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>Common Stock</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
       <c r="B14">
         <v>20</v>
       </c>
-      <c r="C14" t="str">
+      <c r="C14">
         <f>_xll.BDP("PFE US Equity","LAST_PRICE")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="D14" t="str">
+        <v>25.29</v>
+      </c>
+      <c r="D14">
         <f>_xll.BDP("PFE US Equity","RT_PX_CHG_NET_1D")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="E14" t="str">
+        <v>0.01</v>
+      </c>
+      <c r="E14">
         <f>_xll.BDP("PFE US Equity","RT_PX_CHG_PCT_1D")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>3.9599999785423279E-2</v>
       </c>
       <c r="F14" t="str">
         <f>_xll.BDP("PFE US Equity","NAME")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="G14" t="str">
+        <v>PFIZER INC</v>
+      </c>
+      <c r="G14">
         <f>_xll.BDP("PFE US Equity","REL_YTD")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>0.45162180000000002</v>
       </c>
       <c r="H14" t="str">
         <f>_xll.BDP("PFE US Equity","CRNCY")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>USD</v>
       </c>
       <c r="I14" t="str">
         <f>_xll.BDP("PFE US Equity","SECURITY_TYP")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <v>Common Stock</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>22</v>
       </c>
       <c r="B15">
         <v>20</v>
       </c>
-      <c r="C15" t="str">
+      <c r="C15">
         <f>_xll.BDP("OGN US Equity","LAST_PRICE")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="D15" t="str">
+        <v>8.1300000000000008</v>
+      </c>
+      <c r="D15">
         <f>_xll.BDP("OGN US Equity","RT_PX_CHG_NET_1D")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="E15" t="str">
+        <v>-0.06</v>
+      </c>
+      <c r="E15">
         <f>_xll.BDP("OGN US Equity","RT_PX_CHG_PCT_1D")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>-0.73259997367858887</v>
       </c>
       <c r="F15" t="str">
         <f>_xll.BDP("OGN US Equity","NAME")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="G15" t="str">
+        <v>ORGANON &amp; CO</v>
+      </c>
+      <c r="G15">
         <f>_xll.BDP("OGN US Equity","REL_YTD")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>12.14472</v>
       </c>
       <c r="H15" t="str">
         <f>_xll.BDP("OGN US Equity","CRNCY")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>USD</v>
       </c>
       <c r="I15" t="str">
         <f>_xll.BDP("OGN US Equity","SECURITY_TYP")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <v>Common Stock</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>23</v>
       </c>
       <c r="B16">
         <v>20</v>
       </c>
-      <c r="C16" t="str">
+      <c r="C16">
         <f>_xll.BDP("3750 HK Equity","LAST_PRICE")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="D16" t="str">
+        <v>497.4</v>
+      </c>
+      <c r="D16">
         <f>_xll.BDP("3750 HK Equity","RT_PX_CHG_NET_1D")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="E16" t="str">
+        <v>-6.1</v>
+      </c>
+      <c r="E16">
         <f>_xll.BDP("3750 HK Equity","RT_PX_CHG_PCT_1D")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>-1.2115000486373901</v>
       </c>
       <c r="F16" t="str">
         <f>_xll.BDP("3750 HK Equity","NAME")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="G16" t="str">
+        <v>CONTEMPORARY AMPEREX TECHN-H</v>
+      </c>
+      <c r="G16">
         <f>_xll.BDP("3750 HK Equity","REL_YTD")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>-3.8577129999999999</v>
       </c>
       <c r="H16" t="str">
         <f>_xll.BDP("3750 HK Equity","CRNCY")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>HKD</v>
       </c>
       <c r="I16" t="str">
         <f>_xll.BDP("3750 HK Equity","SECURITY_TYP")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>Common Stock</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -3364,33 +3647,33 @@
       <c r="B17">
         <v>20</v>
       </c>
-      <c r="C17" t="str">
+      <c r="C17">
         <f>_xll.BDP("META US Equity","LAST_PRICE")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="D17" t="str">
+        <v>646.05999999999995</v>
+      </c>
+      <c r="D17">
         <f>_xll.BDP("META US Equity","RT_PX_CHG_NET_1D")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="E17" t="str">
+        <v>-2.63</v>
+      </c>
+      <c r="E17">
         <f>_xll.BDP("META US Equity","RT_PX_CHG_PCT_1D")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>-0.40540000796318054</v>
       </c>
       <c r="F17" t="str">
         <f>_xll.BDP("META US Equity","NAME")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="G17" t="str">
+        <v>META PLATFORMS INC-CLASS A</v>
+      </c>
+      <c r="G17">
         <f>_xll.BDP("META US Equity","REL_YTD")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>-3.1996009999999999</v>
       </c>
       <c r="H17" t="str">
         <f>_xll.BDP("META US Equity","CRNCY")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>USD</v>
       </c>
       <c r="I17" t="str">
         <f>_xll.BDP("META US Equity","SECURITY_TYP")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>Common Stock</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -3400,33 +3683,33 @@
       <c r="B18">
         <v>20</v>
       </c>
-      <c r="C18" t="str">
+      <c r="C18">
         <f>_xll.BDP("GOOGL US Equity","LAST_PRICE")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="D18" t="str">
+        <v>325.44</v>
+      </c>
+      <c r="D18">
         <f>_xll.BDP("GOOGL US Equity","RT_PX_CHG_NET_1D")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="E18" t="str">
+        <v>3.46</v>
+      </c>
+      <c r="E18">
         <f>_xll.BDP("GOOGL US Equity","RT_PX_CHG_PCT_1D")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>1.0745999813079834</v>
       </c>
       <c r="F18" t="str">
         <f>_xll.BDP("GOOGL US Equity","NAME")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="G18" t="str">
+        <v>ALPHABET INC-CL A</v>
+      </c>
+      <c r="G18">
         <f>_xll.BDP("GOOGL US Equity","REL_YTD")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>2.833367</v>
       </c>
       <c r="H18" t="str">
         <f>_xll.BDP("GOOGL US Equity","CRNCY")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>USD</v>
       </c>
       <c r="I18" t="str">
         <f>_xll.BDP("GOOGL US Equity","SECURITY_TYP")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>Common Stock</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -3436,33 +3719,33 @@
       <c r="B19">
         <v>20</v>
       </c>
-      <c r="C19" t="str">
+      <c r="C19">
         <f>_xll.BDP("AIR FP Equity","LAST_PRICE")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="D19" t="str">
+        <v>213.5</v>
+      </c>
+      <c r="D19">
         <f>_xll.BDP("AIR FP Equity","RT_PX_CHG_NET_1D")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="E19" t="str">
+        <v>-1.7</v>
+      </c>
+      <c r="E19">
         <f>_xll.BDP("AIR FP Equity","RT_PX_CHG_PCT_1D")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>-0.79000002145767212</v>
       </c>
       <c r="F19" t="str">
         <f>_xll.BDP("AIR FP Equity","NAME")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="G19" t="str">
+        <v>AIRBUS SE</v>
+      </c>
+      <c r="G19">
         <f>_xll.BDP("AIR FP Equity","REL_YTD")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>5.3435949999999997</v>
       </c>
       <c r="H19" t="str">
         <f>_xll.BDP("AIR FP Equity","CRNCY")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>EUR</v>
       </c>
       <c r="I19" t="str">
         <f>_xll.BDP("AIR FP Equity","SECURITY_TYP")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>Common Stock</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -3472,33 +3755,33 @@
       <c r="B20">
         <v>20</v>
       </c>
-      <c r="C20" t="str">
+      <c r="C20">
         <f>_xll.BDP("BA US Equity","LAST_PRICE")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="D20" t="str">
+        <v>227.38</v>
+      </c>
+      <c r="D20">
         <f>_xll.BDP("BA US Equity","RT_PX_CHG_NET_1D")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="E20" t="str">
+        <v>-0.74</v>
+      </c>
+      <c r="E20">
         <f>_xll.BDP("BA US Equity","RT_PX_CHG_PCT_1D")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>-0.32440000772476196</v>
       </c>
       <c r="F20" t="str">
         <f>_xll.BDP("BA US Equity","NAME")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="G20" t="str">
+        <v>BOEING CO/THE</v>
+      </c>
+      <c r="G20">
         <f>_xll.BDP("BA US Equity","REL_YTD")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>3.576184</v>
       </c>
       <c r="H20" t="str">
         <f>_xll.BDP("BA US Equity","CRNCY")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>USD</v>
       </c>
       <c r="I20" t="str">
         <f>_xll.BDP("BA US Equity","SECURITY_TYP")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>Common Stock</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -3508,33 +3791,33 @@
       <c r="B21">
         <v>20</v>
       </c>
-      <c r="C21" t="str">
+      <c r="C21">
         <f>_xll.BDP("BRITISH AIRWAYS CDS EUR SR 5Y Corp","LAST_PRICE")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="D21" t="str">
+        <v>72.236000000000004</v>
+      </c>
+      <c r="D21">
         <f>_xll.BDP("BRITISH AIRWAYS CDS EUR SR 5Y Corp","RT_PX_CHG_NET_1D")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="E21" t="str">
+        <v>0.51</v>
+      </c>
+      <c r="E21">
         <f>_xll.BDP("BRITISH AIRWAYS CDS EUR SR 5Y Corp","RT_PX_CHG_PCT_1D")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>0.71100002527236938</v>
       </c>
       <c r="F21" t="str">
         <f>_xll.BDP("BRITISH AIRWAYS CDS EUR SR 5Y Corp","NAME")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>BRITISH AIRWAYS CDS EUR SR 5Y</v>
       </c>
       <c r="G21" t="str">
         <f>_xll.BDP("BRITISH AIRWAYS CDS EUR SR 5Y Corp","REL_YTD")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>#N/A Field Not Applicable</v>
       </c>
       <c r="H21" t="str">
         <f>_xll.BDP("BRITISH AIRWAYS CDS EUR SR 5Y Corp","CRNCY")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>EUR</v>
       </c>
       <c r="I21" t="str">
         <f>_xll.BDP("BRITISH AIRWAYS CDS EUR SR 5Y Corp","SECURITY_TYP")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>CREDIT DEFAULT SWAP</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -3544,33 +3827,33 @@
       <c r="B22">
         <v>20</v>
       </c>
-      <c r="C22" t="str">
+      <c r="C22">
         <f>_xll.BDP("RR/ LN Equity","LAST_PRICE")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="D22" t="str">
+        <v>1283.5</v>
+      </c>
+      <c r="D22">
         <f>_xll.BDP("RR/ LN Equity","RT_PX_CHG_NET_1D")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="E22" t="str">
+        <v>11</v>
+      </c>
+      <c r="E22">
         <f>_xll.BDP("RR/ LN Equity","RT_PX_CHG_PCT_1D")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>0.86440002918243408</v>
       </c>
       <c r="F22" t="str">
         <f>_xll.BDP("RR/ LN Equity","NAME")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="G22" t="str">
+        <v>ROLLS-ROYCE HOLDINGS PLC</v>
+      </c>
+      <c r="G22">
         <f>_xll.BDP("RR/ LN Equity","REL_YTD")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>9.7475050000000003</v>
       </c>
       <c r="H22" t="str">
         <f>_xll.BDP("RR/ LN Equity","CRNCY")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>GBp</v>
       </c>
       <c r="I22" t="str">
         <f>_xll.BDP("RR/ LN Equity","SECURITY_TYP")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>Common Stock</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -3580,33 +3863,33 @@
       <c r="B23">
         <v>20</v>
       </c>
-      <c r="C23" t="str">
+      <c r="C23">
         <f>_xll.BDP("BA/ LN Equity","LAST_PRICE")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="D23" t="str">
+        <v>2055</v>
+      </c>
+      <c r="D23">
         <f>_xll.BDP("BA/ LN Equity","RT_PX_CHG_NET_1D")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="E23" t="str">
+        <v>32</v>
+      </c>
+      <c r="E23">
         <f>_xll.BDP("BA/ LN Equity","RT_PX_CHG_PCT_1D")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>1.5817999839782715</v>
       </c>
       <c r="F23" t="str">
         <f>_xll.BDP("BA/ LN Equity","NAME")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="G23" t="str">
+        <v>BAE SYSTEMS PLC</v>
+      </c>
+      <c r="G23">
         <f>_xll.BDP("BA/ LN Equity","REL_YTD")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>18.11373</v>
       </c>
       <c r="H23" t="str">
         <f>_xll.BDP("BA/ LN Equity","CRNCY")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>GBp</v>
       </c>
       <c r="I23" t="str">
         <f>_xll.BDP("BA/ LN Equity","SECURITY_TYP")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>Common Stock</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -3616,33 +3899,33 @@
       <c r="B24">
         <v>20</v>
       </c>
-      <c r="C24" t="str">
+      <c r="C24">
         <f>_xll.BDP("MDT US Equity","LAST_PRICE")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="D24" t="str">
+        <v>98.69</v>
+      </c>
+      <c r="D24">
         <f>_xll.BDP("MDT US Equity","RT_PX_CHG_NET_1D")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="E24" t="str">
+        <v>-1.08</v>
+      </c>
+      <c r="E24">
         <f>_xll.BDP("MDT US Equity","RT_PX_CHG_PCT_1D")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>-1.0824999809265137</v>
       </c>
       <c r="F24" t="str">
         <f>_xll.BDP("MDT US Equity","NAME")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="G24" t="str">
+        <v>MEDTRONIC PLC</v>
+      </c>
+      <c r="G24">
         <f>_xll.BDP("MDT US Equity","REL_YTD")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>1.6103719999999999</v>
       </c>
       <c r="H24" t="str">
         <f>_xll.BDP("MDT US Equity","CRNCY")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>USD</v>
       </c>
       <c r="I24" t="str">
         <f>_xll.BDP("MDT US Equity","SECURITY_TYP")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>Common Stock</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -3652,33 +3935,33 @@
       <c r="B25">
         <v>100</v>
       </c>
-      <c r="C25" t="str">
+      <c r="C25">
         <f>_xll.BDP("EMB US Equity","LAST_PRICE")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="D25" t="str">
+        <v>96.01</v>
+      </c>
+      <c r="D25">
         <f>_xll.BDP("EMB US Equity","RT_PX_CHG_NET_1D")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="E25" t="str">
+        <v>-0.15</v>
+      </c>
+      <c r="E25">
         <f>_xll.BDP("EMB US Equity","RT_PX_CHG_PCT_1D")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>-0.15600000321865082</v>
       </c>
       <c r="F25" t="str">
         <f>_xll.BDP("EMB US Equity","NAME")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="G25" t="str">
+        <v>ISHARES JP MORGAN USD EMERGI</v>
+      </c>
+      <c r="G25">
         <f>_xll.BDP("EMB US Equity","REL_YTD")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>-1.3748089999999999</v>
       </c>
       <c r="H25" t="str">
         <f>_xll.BDP("EMB US Equity","CRNCY")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>USD</v>
       </c>
       <c r="I25" t="str">
         <f>_xll.BDP("EMB US Equity","SECURITY_TYP")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>ETP</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -3688,33 +3971,33 @@
       <c r="B26">
         <v>100</v>
       </c>
-      <c r="C26" t="str">
+      <c r="C26">
         <f>_xll.BDP("CBU0 LN Equity","LAST_PRICE")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="D26" t="str">
+        <v>154.71</v>
+      </c>
+      <c r="D26">
         <f>_xll.BDP("CBU0 LN Equity","RT_PX_CHG_NET_1D")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="E26" t="str">
+        <v>-0.05</v>
+      </c>
+      <c r="E26">
         <f>_xll.BDP("CBU0 LN Equity","RT_PX_CHG_PCT_1D")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>-3.229999914765358E-2</v>
       </c>
       <c r="F26" t="str">
         <f>_xll.BDP("CBU0 LN Equity","NAME")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="G26" t="str">
+        <v>ISHARES USD TRES BOND 7-10Y</v>
+      </c>
+      <c r="G26">
         <f>_xll.BDP("CBU0 LN Equity","REL_YTD")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>-2.2991609999999998</v>
       </c>
       <c r="H26" t="str">
         <f>_xll.BDP("CBU0 LN Equity","CRNCY")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>USD</v>
       </c>
       <c r="I26" t="str">
         <f>_xll.BDP("CBU0 LN Equity","SECURITY_TYP")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>ETP</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -3724,33 +4007,33 @@
       <c r="B27">
         <v>20</v>
       </c>
-      <c r="C27" t="str">
+      <c r="C27">
         <f>_xll.BDP("PG US Equity","LAST_PRICE")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="D27" t="str">
+        <v>141.53</v>
+      </c>
+      <c r="D27">
         <f>_xll.BDP("PG US Equity","RT_PX_CHG_NET_1D")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="E27" t="str">
+        <v>3.49</v>
+      </c>
+      <c r="E27">
         <f>_xll.BDP("PG US Equity","RT_PX_CHG_PCT_1D")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>2.5283000469207764</v>
       </c>
       <c r="F27" t="str">
         <f>_xll.BDP("PG US Equity","NAME")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="G27" t="str">
+        <v>PROCTER &amp; GAMBLE CO/THE</v>
+      </c>
+      <c r="G27">
         <f>_xll.BDP("PG US Equity","REL_YTD")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>-2.3258860000000001</v>
       </c>
       <c r="H27" t="str">
         <f>_xll.BDP("PG US Equity","CRNCY")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>USD</v>
       </c>
       <c r="I27" t="str">
         <f>_xll.BDP("PG US Equity","SECURITY_TYP")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>Common Stock</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -3760,33 +4043,33 @@
       <c r="B28">
         <v>40</v>
       </c>
-      <c r="C28" t="str">
+      <c r="C28">
         <f>_xll.BDP("AMZN US Equity","LAST_PRICE")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="D28" t="str">
+        <v>246.29</v>
+      </c>
+      <c r="D28">
         <f>_xll.BDP("AMZN US Equity","RT_PX_CHG_NET_1D")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="E28" t="str">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="E28">
         <f>_xll.BDP("AMZN US Equity","RT_PX_CHG_PCT_1D")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>1.9580999612808228</v>
       </c>
       <c r="F28" t="str">
         <f>_xll.BDP("AMZN US Equity","NAME")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="G28" t="str">
+        <v>AMAZON.COM INC</v>
+      </c>
+      <c r="G28">
         <f>_xll.BDP("AMZN US Equity","REL_YTD")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>5.5311789999999998</v>
       </c>
       <c r="H28" t="str">
         <f>_xll.BDP("AMZN US Equity","CRNCY")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>USD</v>
       </c>
       <c r="I28" t="str">
         <f>_xll.BDP("AMZN US Equity","SECURITY_TYP")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>Common Stock</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -3796,33 +4079,33 @@
       <c r="B29">
         <v>50</v>
       </c>
-      <c r="C29" t="str">
+      <c r="C29">
         <f>_xll.BDP("NEXT US Equity","LAST_PRICE")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="D29" t="str">
+        <v>5.21</v>
+      </c>
+      <c r="D29">
         <f>_xll.BDP("NEXT US Equity","RT_PX_CHG_NET_1D")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="E29" t="str">
+        <v>0.19</v>
+      </c>
+      <c r="E29">
         <f>_xll.BDP("NEXT US Equity","RT_PX_CHG_PCT_1D")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>3.7848999500274658</v>
       </c>
       <c r="F29" t="str">
         <f>_xll.BDP("NEXT US Equity","NAME")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="G29" t="str">
+        <v>NEXTDECADE CORP</v>
+      </c>
+      <c r="G29">
         <f>_xll.BDP("NEXT US Equity","REL_YTD")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>-2.223481</v>
       </c>
       <c r="H29" t="str">
         <f>_xll.BDP("NEXT US Equity","CRNCY")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>USD</v>
       </c>
       <c r="I29" t="str">
         <f>_xll.BDP("NEXT US Equity","SECURITY_TYP")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>Common Stock</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -3832,33 +4115,33 @@
       <c r="B30">
         <v>50</v>
       </c>
-      <c r="C30" t="str">
+      <c r="C30">
         <f>_xll.BDP("SO US Equity","LAST_PRICE")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="D30" t="str">
+        <v>87.22</v>
+      </c>
+      <c r="D30">
         <f>_xll.BDP("SO US Equity","RT_PX_CHG_NET_1D")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="E30" t="str">
+        <v>0.95</v>
+      </c>
+      <c r="E30">
         <f>_xll.BDP("SO US Equity","RT_PX_CHG_PCT_1D")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>1.1011999845504761</v>
       </c>
       <c r="F30" t="str">
         <f>_xll.BDP("SO US Equity","NAME")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="G30" t="str">
+        <v>SOUTHERN CO/THE</v>
+      </c>
+      <c r="G30">
         <f>_xll.BDP("SO US Equity","REL_YTD")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>-1.0747679999999999</v>
       </c>
       <c r="H30" t="str">
         <f>_xll.BDP("SO US Equity","CRNCY")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>USD</v>
       </c>
       <c r="I30" t="str">
         <f>_xll.BDP("SO US Equity","SECURITY_TYP")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>Common Stock</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -3868,33 +4151,33 @@
       <c r="B31">
         <v>300</v>
       </c>
-      <c r="C31" t="str">
+      <c r="C31">
         <f>_xll.BDP("JEMA LN Equity","LAST_PRICE")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="D31" t="str">
+        <v>235</v>
+      </c>
+      <c r="D31">
         <f>_xll.BDP("JEMA LN Equity","RT_PX_CHG_NET_1D")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="E31" t="str">
+        <v>-10</v>
+      </c>
+      <c r="E31">
         <f>_xll.BDP("JEMA LN Equity","RT_PX_CHG_PCT_1D")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>-4.0816001892089844</v>
       </c>
       <c r="F31" t="str">
         <f>_xll.BDP("JEMA LN Equity","NAME")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="G31" t="str">
+        <v>JPMORGAN EMERGING EUROPE MI</v>
+      </c>
+      <c r="G31">
         <f>_xll.BDP("JEMA LN Equity","REL_YTD")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>-2.8692489999999999</v>
       </c>
       <c r="H31" t="str">
         <f>_xll.BDP("JEMA LN Equity","CRNCY")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>GBp</v>
       </c>
       <c r="I31" t="str">
         <f>_xll.BDP("JEMA LN Equity","SECURITY_TYP")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>Closed-End Fund</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -3904,33 +4187,33 @@
       <c r="B32">
         <v>20</v>
       </c>
-      <c r="C32" t="str">
+      <c r="C32">
         <f>_xll.BDP("EMIRATES UH Equity","LAST_PRICE")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="D32" t="str">
+        <v>29.35</v>
+      </c>
+      <c r="D32">
         <f>_xll.BDP("EMIRATES UH Equity","RT_PX_CHG_NET_1D")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="E32" t="str">
+        <v>-0.1</v>
+      </c>
+      <c r="E32">
         <f>_xll.BDP("EMIRATES UH Equity","RT_PX_CHG_PCT_1D")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>-0.33959999680519104</v>
       </c>
       <c r="F32" t="str">
         <f>_xll.BDP("EMIRATES UH Equity","NAME")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="G32" t="str">
+        <v>EMIRATES NBD PJSC</v>
+      </c>
+      <c r="G32">
         <f>_xll.BDP("EMIRATES UH Equity","REL_YTD")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>2.3586130000000001</v>
       </c>
       <c r="H32" t="str">
         <f>_xll.BDP("EMIRATES UH Equity","CRNCY")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>AED</v>
       </c>
       <c r="I32" t="str">
         <f>_xll.BDP("EMIRATES UH Equity","SECURITY_TYP")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>Common Stock</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -3940,33 +4223,33 @@
       <c r="B33">
         <v>20</v>
       </c>
-      <c r="C33" t="str">
+      <c r="C33">
         <f>_xll.BDP("KO US Equity","LAST_PRICE")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="D33" t="str">
+        <v>69.37</v>
+      </c>
+      <c r="D33">
         <f>_xll.BDP("KO US Equity","RT_PX_CHG_NET_1D")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="E33" t="str">
+        <v>1.83</v>
+      </c>
+      <c r="E33">
         <f>_xll.BDP("KO US Equity","RT_PX_CHG_PCT_1D")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>2.7095000743865967</v>
       </c>
       <c r="F33" t="str">
         <f>_xll.BDP("KO US Equity","NAME")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="G33" t="str">
+        <v>COCA-COLA CO/THE</v>
+      </c>
+      <c r="G33">
         <f>_xll.BDP("KO US Equity","REL_YTD")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>-1.8614059999999999</v>
       </c>
       <c r="H33" t="str">
         <f>_xll.BDP("KO US Equity","CRNCY")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>USD</v>
       </c>
       <c r="I33" t="str">
         <f>_xll.BDP("KO US Equity","SECURITY_TYP")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>Common Stock</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -3976,33 +4259,33 @@
       <c r="B34">
         <v>20</v>
       </c>
-      <c r="C34" t="str">
+      <c r="C34">
         <f>_xll.BDP("CON GR Equity","LAST_PRICE")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="D34" t="str">
+        <v>69.400000000000006</v>
+      </c>
+      <c r="D34">
         <f>_xll.BDP("CON GR Equity","RT_PX_CHG_NET_1D")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="E34" t="str">
+        <v>0.78</v>
+      </c>
+      <c r="E34">
         <f>_xll.BDP("CON GR Equity","RT_PX_CHG_PCT_1D")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>1.1367000341415405</v>
       </c>
       <c r="F34" t="str">
         <f>_xll.BDP("CON GR Equity","NAME")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="G34" t="str">
+        <v>CONTINENTAL AG</v>
+      </c>
+      <c r="G34">
         <f>_xll.BDP("CON GR Equity","REL_YTD")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>-1.1313219999999999</v>
       </c>
       <c r="H34" t="str">
         <f>_xll.BDP("CON GR Equity","CRNCY")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>EUR</v>
       </c>
       <c r="I34" t="str">
         <f>_xll.BDP("CON GR Equity","SECURITY_TYP")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>Common Stock</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -4012,33 +4295,33 @@
       <c r="B35">
         <v>20</v>
       </c>
-      <c r="C35" t="str">
+      <c r="C35">
         <f>_xll.BDP("NFLX US Equity","LAST_PRICE")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="D35" t="str">
+        <v>90.53</v>
+      </c>
+      <c r="D35">
         <f>_xll.BDP("NFLX US Equity","RT_PX_CHG_NET_1D")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="E35" t="str">
+        <v>-0.2</v>
+      </c>
+      <c r="E35">
         <f>_xll.BDP("NFLX US Equity","RT_PX_CHG_PCT_1D")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>-0.22040000557899475</v>
       </c>
       <c r="F35" t="str">
         <f>_xll.BDP("NFLX US Equity","NAME")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="G35" t="str">
+        <v>NETFLIX INC</v>
+      </c>
+      <c r="G35">
         <f>_xll.BDP("NFLX US Equity","REL_YTD")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>-4.5046169999999996</v>
       </c>
       <c r="H35" t="str">
         <f>_xll.BDP("NFLX US Equity","CRNCY")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>USD</v>
       </c>
       <c r="I35" t="str">
         <f>_xll.BDP("NFLX US Equity","SECURITY_TYP")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>Common Stock</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -4048,33 +4331,33 @@
       <c r="B36">
         <v>20</v>
       </c>
-      <c r="C36" t="str">
+      <c r="C36">
         <f>_xll.BDP("SBUX US Equity","LAST_PRICE")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="D36" t="str">
+        <v>88.18</v>
+      </c>
+      <c r="D36">
         <f>_xll.BDP("SBUX US Equity","RT_PX_CHG_NET_1D")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="E36" t="str">
+        <v>1.49</v>
+      </c>
+      <c r="E36">
         <f>_xll.BDP("SBUX US Equity","RT_PX_CHG_PCT_1D")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>1.7187999486923218</v>
       </c>
       <c r="F36" t="str">
         <f>_xll.BDP("SBUX US Equity","NAME")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="G36" t="str">
+        <v>STARBUCKS CORP</v>
+      </c>
+      <c r="G36">
         <f>_xll.BDP("SBUX US Equity","REL_YTD")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>3.5652110000000001</v>
       </c>
       <c r="H36" t="str">
         <f>_xll.BDP("SBUX US Equity","CRNCY")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>USD</v>
       </c>
       <c r="I36" t="str">
         <f>_xll.BDP("SBUX US Equity","SECURITY_TYP")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>Common Stock</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -4084,33 +4367,33 @@
       <c r="B37">
         <v>50</v>
       </c>
-      <c r="C37" t="str">
+      <c r="C37">
         <f>_xll.BDP("JGB1X SW Equity","LAST_PRICE")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="D37" t="str">
+        <v>908.91989999999998</v>
+      </c>
+      <c r="D37">
         <f>_xll.BDP("JGB1X SW Equity","RT_PX_CHG_NET_1D")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="E37" t="str">
+        <v>2.9199000000000002</v>
+      </c>
+      <c r="E37">
         <f>_xll.BDP("JGB1X SW Equity","RT_PX_CHG_PCT_1D")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>0.32229998707771301</v>
       </c>
       <c r="F37" t="str">
         <f>_xll.BDP("JGB1X SW Equity","NAME")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="G37" t="str">
+        <v>ISHARES JP GOV BOND UCIT ETF</v>
+      </c>
+      <c r="G37">
         <f>_xll.BDP("JGB1X SW Equity","REL_YTD")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>-1.0902670000000001</v>
       </c>
       <c r="H37" t="str">
         <f>_xll.BDP("JGB1X SW Equity","CRNCY")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>JPY</v>
       </c>
       <c r="I37" t="str">
         <f>_xll.BDP("JGB1X SW Equity","SECURITY_TYP")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>ETP</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -4120,33 +4403,33 @@
       <c r="B38">
         <v>0</v>
       </c>
-      <c r="C38" t="str">
+      <c r="C38">
         <f>_xll.BDP("USDCNY Curncy","LAST_PRICE")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="D38" t="str">
+        <v>6.9771999999999998</v>
+      </c>
+      <c r="D38">
         <f>_xll.BDP("USDCNY Curncy","RT_PX_CHG_NET_1D")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>-7.3000000000000001E-3</v>
       </c>
       <c r="E38">
         <f>_xll.BDP("USDCNY Curncy","RT_PX_CHG_PCT_1D")</f>
-        <v>-3.5799998790025711E-2</v>
+        <v>-0.10450000315904617</v>
       </c>
       <c r="F38" t="str">
         <f>_xll.BDP("USDCNY Curncy","NAME")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>USD-CNY X-RATE</v>
       </c>
       <c r="G38" t="str">
         <f>_xll.BDP("USDCNY Curncy","REL_YTD")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>#N/A Field Not Applicable</v>
       </c>
       <c r="H38" t="str">
         <f>_xll.BDP("USDCNY Curncy","CRNCY")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>CNY</v>
       </c>
       <c r="I38" t="str">
         <f>_xll.BDP("USDCNY Curncy","SECURITY_TYP")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>CROSS</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -4156,33 +4439,33 @@
       <c r="B39">
         <v>0</v>
       </c>
-      <c r="C39" t="str">
+      <c r="C39">
         <f>_xll.BDP("USDJPY Curncy","LAST_PRICE")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="D39" t="str">
+        <v>157.91</v>
+      </c>
+      <c r="D39">
         <f>_xll.BDP("USDJPY Curncy","RT_PX_CHG_NET_1D")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="E39" t="str">
+        <v>1.04</v>
+      </c>
+      <c r="E39">
         <f>_xll.BDP("USDJPY Curncy","RT_PX_CHG_PCT_1D")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>0.66299998760223389</v>
       </c>
       <c r="F39" t="str">
         <f>_xll.BDP("USDJPY Curncy","NAME")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>USD-JPY X-RATE</v>
       </c>
       <c r="G39" t="str">
         <f>_xll.BDP("USDJPY Curncy","REL_YTD")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>#N/A Field Not Applicable</v>
       </c>
       <c r="H39" t="str">
         <f>_xll.BDP("USDJPY Curncy","CRNCY")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>JPY</v>
       </c>
       <c r="I39" t="str">
         <f>_xll.BDP("USDJPY Curncy","SECURITY_TYP")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>CROSS</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -4192,21 +4475,21 @@
       <c r="B40">
         <v>0</v>
       </c>
-      <c r="C40" t="str">
+      <c r="C40">
         <f>_xll.BDP("USDHKD Curncy","LAST_PRICE")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="D40" t="str">
+        <v>7.7942</v>
+      </c>
+      <c r="D40">
         <f>_xll.BDP("USDHKD Curncy","RT_PX_CHG_NET_1D")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="E40" t="str">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="E40">
         <f>_xll.BDP("USDHKD Curncy","RT_PX_CHG_PCT_1D")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>2.8200000524520874E-2</v>
       </c>
       <c r="F40" t="str">
         <f>_xll.BDP("USDHKD Curncy","NAME")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>USD-HKD X-RATE</v>
       </c>
       <c r="G40" t="str">
         <f>_xll.BDP("USDHKD Curncy","REL_YTD")</f>
@@ -4214,11 +4497,11 @@
       </c>
       <c r="H40" t="str">
         <f>_xll.BDP("USDHKD Curncy","CRNCY")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>HKD</v>
       </c>
       <c r="I40" t="str">
         <f>_xll.BDP("USDHKD Curncy","SECURITY_TYP")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>CROSS</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -4228,33 +4511,33 @@
       <c r="B41">
         <v>0</v>
       </c>
-      <c r="C41" t="str">
+      <c r="C41">
         <f>_xll.BDP("GBPUSD Curncy","LAST_PRICE")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="D41" t="str">
+        <v>1.3424</v>
+      </c>
+      <c r="D41">
         <f>_xll.BDP("GBPUSD Curncy","RT_PX_CHG_NET_1D")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="E41" t="str">
+        <v>-1.5E-3</v>
+      </c>
+      <c r="E41">
         <f>_xll.BDP("GBPUSD Curncy","RT_PX_CHG_PCT_1D")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>-0.11159999668598175</v>
       </c>
       <c r="F41" t="str">
         <f>_xll.BDP("GBPUSD Curncy","NAME")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>GBP-USD X-RATE</v>
       </c>
       <c r="G41" t="str">
         <f>_xll.BDP("GBPUSD Curncy","REL_YTD")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>#N/A Field Not Applicable</v>
       </c>
       <c r="H41" t="str">
         <f>_xll.BDP("GBPUSD Curncy","CRNCY")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>USD</v>
       </c>
       <c r="I41" t="str">
         <f>_xll.BDP("GBPUSD Curncy","SECURITY_TYP")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>CROSS</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -4264,37 +4547,59 @@
       <c r="B42">
         <v>0</v>
       </c>
-      <c r="C42" t="str">
+      <c r="C42">
         <f>_xll.BDP("EURUSD Curncy","LAST_PRICE")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="D42" t="str">
+        <v>1.1642999999999999</v>
+      </c>
+      <c r="D42">
         <f>_xll.BDP("EURUSD Curncy","RT_PX_CHG_NET_1D")</f>
-        <v>#N/A Requesting Data...</v>
-      </c>
-      <c r="E42" t="str">
+        <v>-1.6999999999999999E-3</v>
+      </c>
+      <c r="E42">
         <f>_xll.BDP("EURUSD Curncy","RT_PX_CHG_PCT_1D")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>-0.14579999446868896</v>
       </c>
       <c r="F42" t="str">
         <f>_xll.BDP("EURUSD Curncy","NAME")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>EUR-USD X-RATE</v>
       </c>
       <c r="G42" t="str">
         <f>_xll.BDP("EURUSD Curncy","REL_YTD")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>#N/A Field Not Applicable</v>
       </c>
       <c r="H42" t="str">
         <f>_xll.BDP("EURUSD Curncy","CRNCY")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>USD</v>
       </c>
       <c r="I42" t="str">
         <f>_xll.BDP("EURUSD Curncy","SECURITY_TYP")</f>
-        <v>#N/A Requesting Data...</v>
+        <v>CROSS</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <cellWatches>
+    <cellWatch r="F3"/>
+    <cellWatch r="G3"/>
+    <cellWatch r="F4"/>
+    <cellWatch r="G4"/>
+    <cellWatch r="F5"/>
+    <cellWatch r="G5"/>
+    <cellWatch r="F6"/>
+    <cellWatch r="G6"/>
+    <cellWatch r="F7"/>
+    <cellWatch r="G7"/>
+    <cellWatch r="F8"/>
+    <cellWatch r="G8"/>
+    <cellWatch r="F9"/>
+    <cellWatch r="G9"/>
+    <cellWatch r="F10"/>
+    <cellWatch r="G10"/>
+    <cellWatch r="F11"/>
+    <cellWatch r="G11"/>
+    <cellWatch r="F12"/>
+    <cellWatch r="G12"/>
+  </cellWatches>
 </worksheet>
 </file>
 
